--- a/Emissao/Dados_Emissao/Original/Marcela_Doni.xlsx
+++ b/Emissao/Dados_Emissao/Original/Marcela_Doni.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3402" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2772" uniqueCount="240">
   <si>
     <t>Cia</t>
   </si>
@@ -89,13 +89,70 @@
     <t>497144 - ADILSON DE SOUZA</t>
   </si>
   <si>
+    <t>445598 - ADRIANO DE PROSPERO</t>
+  </si>
+  <si>
+    <t>502861 - AGILTEC ADM E CORR DE SEGUROS EI</t>
+  </si>
+  <si>
+    <t>502854 - AIJ CORRETORA DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>483153 - AJSEG CORRETORA DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>400444 - ALESSANDRA JANSONIS MARCUZ SILVA</t>
+  </si>
+  <si>
+    <t>496123 - ALL PROTECTION CORRETORA DE SEGU</t>
+  </si>
+  <si>
+    <t>445080 - ALLEGRO CORRETORA DE SEGUROS EM</t>
+  </si>
+  <si>
+    <t>494247 - ANA NATALINA REINER</t>
+  </si>
+  <si>
+    <t>400852 - ANDERSON ULISSES DAS CHAGAS</t>
+  </si>
+  <si>
+    <t>494054 - ASURANSI CORRETORA DE SEGUROS</t>
+  </si>
+  <si>
+    <t>403350 - ATISEG CORRETORA DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>488257 - AVANTI CORRETORA DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>448975 - B&amp;B CORRETORA DE SEGUROS GERAIS</t>
+  </si>
+  <si>
+    <t>518397 - BACCI E FERMINO CORR DE SEGUROS</t>
+  </si>
+  <si>
+    <t>503000 - BARRETO E BIZARRO CORRETORA DE S</t>
+  </si>
+  <si>
+    <t>510008 - BARROS E CYPRIANO ADM E CORR DE</t>
+  </si>
+  <si>
+    <t>481796 - BR ESTATE CONSULTORIA IMOBILIARI</t>
+  </si>
+  <si>
+    <t>403143 - CARDOSO E FILHO CORRETORA DE SEG</t>
+  </si>
+  <si>
+    <t>446089 - CARLOS ALBERTO DA SILVA COSTA</t>
+  </si>
+  <si>
     <t>531</t>
   </si>
   <si>
     <t>990</t>
   </si>
   <si>
-    <t>135470</t>
+    <t>136381</t>
   </si>
   <si>
     <t>1</t>
@@ -104,1095 +161,423 @@
     <t>0</t>
   </si>
   <si>
-    <t>De: 19/09/2024 a 19/09/2025</t>
-  </si>
-  <si>
-    <t>HEMOTEC ELETROMEDICINA LTDA ME</t>
-  </si>
-  <si>
-    <t>08/10/2024</t>
+    <t>De: 24/10/2024 a 24/10/2025</t>
+  </si>
+  <si>
+    <t>SILVANA BISPO DOS SANTOS</t>
+  </si>
+  <si>
+    <t>01/11/2024</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>R$ 2.734,85</t>
+  </si>
+  <si>
+    <t>R$ 2.936,68</t>
+  </si>
+  <si>
+    <t>400042 - CARLOS APARECIDO RIBEIRO</t>
+  </si>
+  <si>
+    <t>508039 - CASTRO E PIRANE COR SEGS VIDA</t>
+  </si>
+  <si>
+    <t>136392</t>
+  </si>
+  <si>
+    <t>De: 28/10/2024 a 28/10/2025</t>
+  </si>
+  <si>
+    <t>VANDERLEIA FILISBERTO DE FREITAS</t>
+  </si>
+  <si>
+    <t>R$ 2.688,10</t>
+  </si>
+  <si>
+    <t>R$ 2.886,48</t>
+  </si>
+  <si>
+    <t>402266 - CKS CORRETORA DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>403212 - CLIENSEG COR DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>478620 - COLUMBIA CORRETORA DE SEGUROS SS</t>
+  </si>
+  <si>
+    <t>401726 - CORPORATE CARTAGENA ADMINISTRADO</t>
+  </si>
+  <si>
+    <t>136397</t>
+  </si>
+  <si>
+    <t>De: 30/10/2024 a 30/10/2025</t>
+  </si>
+  <si>
+    <t>DOUGLAS JORGE RAMOS</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>R$ 2.743,63</t>
+  </si>
+  <si>
+    <t>R$ 2.946,10</t>
+  </si>
+  <si>
+    <t>404011 - CORRET, DE SEGS BEST ESTILO LTDA</t>
+  </si>
+  <si>
+    <t>480469 - COSTA E CAOVILA COR DE SEGUROS L</t>
+  </si>
+  <si>
+    <t>500766 - CS - ADMINISTRACAO E CORRETORA D</t>
+  </si>
+  <si>
+    <t>404107 - DALAVA CORRETORA DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>136406</t>
+  </si>
+  <si>
+    <t>De: 04/11/2024 a 04/11/2025</t>
+  </si>
+  <si>
+    <t>DIRCEU DE FREITAS TRANSPORTES ME</t>
+  </si>
+  <si>
+    <t>R$ 2.831,32</t>
+  </si>
+  <si>
+    <t>R$ 3.040,27</t>
+  </si>
+  <si>
+    <t>402576 - DE GENNARO &amp; PAVANELLI G.S.C.S.P</t>
+  </si>
+  <si>
+    <t>136407</t>
+  </si>
+  <si>
+    <t>R$ 3.073,44</t>
+  </si>
+  <si>
+    <t>R$ 3.300,25</t>
+  </si>
+  <si>
+    <t>136408</t>
+  </si>
+  <si>
+    <t>R$ 2.923,44</t>
+  </si>
+  <si>
+    <t>R$ 3.139,18</t>
+  </si>
+  <si>
+    <t>448486 - DELA MARTA CORRETORA DE SEGUROS</t>
+  </si>
+  <si>
+    <t>403399 - DODA PIVA COR.DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>402124 - DRIKA PIRES COR DE SEGS VIDA LT</t>
+  </si>
+  <si>
+    <t>501081 - DY CORRETORA DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>400490 - EDINETE CRISTIANE SEPRESSE PRETE</t>
+  </si>
+  <si>
+    <t>400441 - EDISON JOSE CORREA</t>
+  </si>
+  <si>
+    <t>494010 - ELOSEG CORRETORA DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>402853 - EXERCE CONS CORR SEGS LTDA</t>
+  </si>
+  <si>
+    <t>402094 - EXODO CONFIANCA CORRETORA DE SEG</t>
+  </si>
+  <si>
+    <t>443048 - EXP HAUS CORRETORA DE SEGUROS LT</t>
+  </si>
+  <si>
+    <t>503554 - EXPERTISE CONSULTORIA E CORRETAG</t>
+  </si>
+  <si>
+    <t>491497 - F P DE SOUZA CORRETORA DE SEGURO</t>
+  </si>
+  <si>
+    <t>911 - CAMPINAS MERCADO</t>
+  </si>
+  <si>
+    <t>527109 - FAMA CORRETORA DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>528322 - FARIA COR DE SEG E PLANOS DE SAU</t>
+  </si>
+  <si>
+    <t>400715 - FERNANDA DE CARVALHO BRAGA</t>
+  </si>
+  <si>
+    <t>516383 - FERNANDO FELIPE CORREA TAVARES</t>
+  </si>
+  <si>
+    <t>402420 - FORMAGGIO ADM E COR DE SEGS LTDA</t>
+  </si>
+  <si>
+    <t>520581 - FOSTER CORR DE SEGS E SERVICOS F</t>
+  </si>
+  <si>
+    <t>497276 - FRANCISCO CARLOS NUNES DE OLIVEI</t>
+  </si>
+  <si>
+    <t>445211 - GERSON DOS SANTOS PAIVA</t>
+  </si>
+  <si>
+    <t>518405 - GHRANERO CORRETORA DE SEGUROS LT</t>
+  </si>
+  <si>
+    <t>403374 - GILIOLI &amp; ROSA COR.DE SEGS.LTDA</t>
+  </si>
+  <si>
+    <t>436770 - GOIS CONS E CORR DE SEGS LTDA</t>
+  </si>
+  <si>
+    <t>495516 - GR ATIBAIA CORRETORA DE SEGUROS</t>
+  </si>
+  <si>
+    <t>441593 - HERMES DAGOBERTO MOLINARI</t>
+  </si>
+  <si>
+    <t>493683 - IMPERIO BRASIL CORRETORA DE SEGU</t>
+  </si>
+  <si>
+    <t>136382</t>
+  </si>
+  <si>
+    <t>De: 25/10/2024 a 25/10/2025</t>
+  </si>
+  <si>
+    <t>KARLA KATRINI RAPOZEIRO PASSOS</t>
+  </si>
+  <si>
+    <t>R$ 1.166,42</t>
+  </si>
+  <si>
+    <t>R$ 1.252,50</t>
+  </si>
+  <si>
+    <t>501150 - INNOVACCI CORRETORA DE SEGUROS L</t>
+  </si>
+  <si>
+    <t>448526 - IVAN FURLAN</t>
+  </si>
+  <si>
+    <t>402261 - J.O. PERIGOLO CORRETORA DE SEGUR</t>
+  </si>
+  <si>
+    <t>403304 - JARYS CORRETORA DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>401055 - JEFFERSON FERNANDO ROSSI</t>
+  </si>
+  <si>
+    <t>136398</t>
+  </si>
+  <si>
+    <t>De: 19/10/2024 a 19/10/2025</t>
+  </si>
+  <si>
+    <t>VALERIA MARIA AFONSO</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>R$ 2.499,66</t>
-  </si>
-  <si>
-    <t>R$ 2.684,13</t>
-  </si>
-  <si>
-    <t>445598 - ADRIANO DE PROSPERO</t>
-  </si>
-  <si>
-    <t>502861 - AGILTEC ADM E CORR DE SEGUROS EI</t>
-  </si>
-  <si>
-    <t>502854 - AIJ CORRETORA DE SEGUROS LTDA</t>
+    <t>R$ 1.365,88</t>
+  </si>
+  <si>
+    <t>R$ 1.466,68</t>
+  </si>
+  <si>
+    <t>483152 - JULIO CESAR VERONEZE ME</t>
   </si>
   <si>
     <t>927</t>
   </si>
   <si>
-    <t>12977</t>
-  </si>
-  <si>
-    <t>De: 08/10/2024 a 08/10/2025</t>
-  </si>
-  <si>
-    <t>ROQUE ROBERTO CORASSA</t>
-  </si>
-  <si>
-    <t>03/10/2024</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>R$ 219,66</t>
-  </si>
-  <si>
-    <t>R$ 235,86</t>
-  </si>
-  <si>
-    <t>483153 - AJSEG CORRETORA DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>12978</t>
-  </si>
-  <si>
-    <t>R$ 450,78</t>
-  </si>
-  <si>
-    <t>R$ 484,02</t>
-  </si>
-  <si>
-    <t>12979</t>
-  </si>
-  <si>
-    <t>R$ 209,26</t>
-  </si>
-  <si>
-    <t>R$ 224,69</t>
-  </si>
-  <si>
-    <t>13036</t>
-  </si>
-  <si>
-    <t>De: 10/10/2024 a 10/10/2025</t>
-  </si>
-  <si>
-    <t>DALILA NOVAIS DE ALMEIDA CARMO</t>
-  </si>
-  <si>
-    <t>09/10/2024</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>R$ 368,09</t>
-  </si>
-  <si>
-    <t>R$ 395,19</t>
-  </si>
-  <si>
-    <t>400444 - ALESSANDRA JANSONIS MARCUZ SILVA</t>
-  </si>
-  <si>
-    <t>496123 - ALL PROTECTION CORRETORA DE SEGU</t>
-  </si>
-  <si>
-    <t>445080 - ALLEGRO CORRETORA DE SEGUROS EM</t>
-  </si>
-  <si>
-    <t>494247 - ANA NATALINA REINER</t>
-  </si>
-  <si>
-    <t>400852 - ANDERSON ULISSES DAS CHAGAS</t>
-  </si>
-  <si>
-    <t>135282</t>
-  </si>
-  <si>
-    <t>De: 30/09/2024 a 30/09/2025</t>
-  </si>
-  <si>
-    <t>SANDY CRUZ FREDERICO</t>
-  </si>
-  <si>
-    <t>02/10/2024</t>
-  </si>
-  <si>
-    <t>R$ 1.824,80</t>
-  </si>
-  <si>
-    <t>R$ 1.959,47</t>
-  </si>
-  <si>
-    <t>494054 - ASURANSI CORRETORA DE SEGUROS</t>
-  </si>
-  <si>
-    <t>135466</t>
-  </si>
-  <si>
-    <t>De: 01/10/2024 a 01/10/2025</t>
-  </si>
-  <si>
-    <t>WILSON ANTONIO PINCINATO</t>
+    <t>56031</t>
+  </si>
+  <si>
+    <t>De: 10/11/2024 a 10/11/2025</t>
+  </si>
+  <si>
+    <t>TALITA CARDOSO REAME</t>
+  </si>
+  <si>
+    <t>R$ 593,20</t>
+  </si>
+  <si>
+    <t>R$ 636,90</t>
+  </si>
+  <si>
+    <t>527224 - JUNDSAFE CERTIFI DIGITAL E COR S</t>
+  </si>
+  <si>
+    <t>509058 - JVJ CORR DE SEGUROS E PLANOS DE</t>
+  </si>
+  <si>
+    <t>403854 - LACOURT FIDELITY CORRETORA DE SE</t>
+  </si>
+  <si>
+    <t>485905 - LAIR APARECIDO DA SILVA</t>
+  </si>
+  <si>
+    <t>441917 - LED CORRETORA DE SEGUROS</t>
+  </si>
+  <si>
+    <t>521322 - LHSM CORRETORA DE SEGUROS EIRELI</t>
+  </si>
+  <si>
+    <t>400884 - LINCOLN ANDRE DA SILVA ZAGO</t>
+  </si>
+  <si>
+    <t>524524 - LOESCH E COSTA CORRETORA DE SEGU</t>
+  </si>
+  <si>
+    <t>503122 - LOTUS CORRETORA DE SEGUROS EIREL</t>
+  </si>
+  <si>
+    <t>486463 - LOUZADA CORRETORA DE SEGUROS LTD</t>
+  </si>
+  <si>
+    <t>402282 - LUAPER CORRETORA SEGS SC LTDA</t>
+  </si>
+  <si>
+    <t>403327 - LUCAVI CORRETORA DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>401153 - LUIZINHO APARECIDO DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>503799 - M E V CARDOZO CORRETORA DE SEGUR</t>
+  </si>
+  <si>
+    <t>513526 - MAC CORRETORA DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>509753 - MADALENA MONTEIRO COR SEG CONS E</t>
+  </si>
+  <si>
+    <t>501837 - MAFEL ASS E CORRETORA DE SEGUROS</t>
+  </si>
+  <si>
+    <t>512605 - MANASEG CORRETORA DE SEGUROS LTD</t>
+  </si>
+  <si>
+    <t>526125 - MANTOVANI CORRETORA DE SEGUROS L</t>
+  </si>
+  <si>
+    <t>400527 - MARA DENISE DA SILVA</t>
+  </si>
+  <si>
+    <t>517733 - MARACOR CONSULT E CORR DE SEGS L</t>
+  </si>
+  <si>
+    <t>508999 - MARCEL &amp; ABDULLAH CORR SEGS LTDA</t>
+  </si>
+  <si>
+    <t>403830 - MARCIO CHAMPION CORRETORA DE SEG</t>
+  </si>
+  <si>
+    <t>479453 - MARIA ELOINA STANGHERLIN</t>
+  </si>
+  <si>
+    <t>522922 - MARIA ELOINA STANGHERLIN SEGUROS</t>
+  </si>
+  <si>
+    <t>507142 - MARIA EUGENIA LUISI DA SILVA</t>
+  </si>
+  <si>
+    <t>400025 - MARIA VILMA FIGUEIREDO SOSTENA</t>
+  </si>
+  <si>
+    <t>400669 - MARISA BRUZADIM RAMOS CALANDRIM</t>
+  </si>
+  <si>
+    <t>401381 - MAWILE'S COR DE SEGS LTDA</t>
+  </si>
+  <si>
+    <t>404628 - MERCANTIL FERNAO DIAS COM IMPORT</t>
+  </si>
+  <si>
+    <t>529111 - MINSKI CORRETORA DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>510123 - MORUNGABA CORRETORA DE SEGUROS L</t>
+  </si>
+  <si>
+    <t>444070 - MR ALVES CORRETORA DE SEGUROS LT</t>
+  </si>
+  <si>
+    <t>403546 - MX2 QUALITY SUPPORT ASS EMP E CO</t>
+  </si>
+  <si>
+    <t>411210 - NACAO SEGURA COR.DE SEGS.S/S LTD</t>
+  </si>
+  <si>
+    <t>501665 - NATAN SACCENTI LOPES</t>
+  </si>
+  <si>
+    <t>13091</t>
+  </si>
+  <si>
+    <t>De: 22/10/2024 a 22/10/2025</t>
+  </si>
+  <si>
+    <t>MARCOS SEBASTIAN RIVEIRO PORTELA</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>R$ 2.811,27</t>
-  </si>
-  <si>
-    <t>R$ 3.018,74</t>
-  </si>
-  <si>
-    <t>917</t>
-  </si>
-  <si>
-    <t>1339</t>
-  </si>
-  <si>
-    <t>AFAN PARTICIPACOES E EMPREENDIMENTOS LTDA</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>R$ 4.549,00</t>
-  </si>
-  <si>
-    <t>R$ 4.884,70</t>
-  </si>
-  <si>
-    <t>403350 - ATISEG CORRETORA DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>13018</t>
-  </si>
-  <si>
-    <t>De: 04/10/2024 a 04/10/2025</t>
-  </si>
-  <si>
-    <t>ANA LUCIA SOUTO FERRI ALVES</t>
-  </si>
-  <si>
-    <t>07/10/2024</t>
-  </si>
-  <si>
-    <t>R$ 788,34</t>
-  </si>
-  <si>
-    <t>R$ 846,50</t>
-  </si>
-  <si>
-    <t>488257 - AVANTI CORRETORA DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>448975 - B&amp;B CORRETORA DE SEGUROS GERAIS</t>
-  </si>
-  <si>
-    <t>518397 - BACCI E FERMINO CORR DE SEGUROS</t>
-  </si>
-  <si>
-    <t>503000 - BARRETO E BIZARRO CORRETORA DE S</t>
-  </si>
-  <si>
-    <t>510008 - BARROS E CYPRIANO ADM E CORR DE</t>
-  </si>
-  <si>
-    <t>481796 - BR ESTATE CONSULTORIA IMOBILIARI</t>
-  </si>
-  <si>
-    <t>403143 - CARDOSO E FILHO CORRETORA DE SEG</t>
-  </si>
-  <si>
-    <t>446089 - CARLOS ALBERTO DA SILVA COSTA</t>
-  </si>
-  <si>
-    <t>12970</t>
-  </si>
-  <si>
-    <t>De: 05/10/2024 a 05/10/2025</t>
-  </si>
-  <si>
-    <t>ELIO DE AQUINO PINTO</t>
-  </si>
-  <si>
-    <t>R$ 224,19</t>
-  </si>
-  <si>
-    <t>R$ 240,73</t>
-  </si>
-  <si>
-    <t>400042 - CARLOS APARECIDO RIBEIRO</t>
-  </si>
-  <si>
-    <t>135500</t>
-  </si>
-  <si>
-    <t>LUCAS PEDREIRA DO COUTO FERRAZ</t>
-  </si>
-  <si>
-    <t>R$ 2.677,81</t>
-  </si>
-  <si>
-    <t>R$ 2.875,43</t>
-  </si>
-  <si>
-    <t>508039 - CASTRO E PIRANE COR SEGS VIDA</t>
-  </si>
-  <si>
-    <t>135261</t>
-  </si>
-  <si>
-    <t>EUGENIO ISAO ONO</t>
-  </si>
-  <si>
-    <t>01/10/2024</t>
-  </si>
-  <si>
-    <t>R$ 2.668,13</t>
-  </si>
-  <si>
-    <t>R$ 2.865,03</t>
-  </si>
-  <si>
-    <t>402266 - CKS CORRETORA DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>403212 - CLIENSEG COR DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>478620 - COLUMBIA CORRETORA DE SEGUROS SS</t>
-  </si>
-  <si>
-    <t>401726 - CORPORATE CARTAGENA ADMINISTRADO</t>
-  </si>
-  <si>
-    <t>135284</t>
-  </si>
-  <si>
-    <t>TITANIUM SEGURANCA E SERVICOS EM T LTDA</t>
-  </si>
-  <si>
-    <t>R$ 6.112,65</t>
-  </si>
-  <si>
-    <t>R$ 6.563,76</t>
-  </si>
-  <si>
-    <t>404011 - CORRET, DE SEGS BEST ESTILO LTDA</t>
-  </si>
-  <si>
-    <t>135513</t>
-  </si>
-  <si>
-    <t>VALDEMAR ROSA DA SILVEIRA</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>R$ 4.965,59</t>
-  </si>
-  <si>
-    <t>R$ 5.332,05</t>
-  </si>
-  <si>
-    <t>135339</t>
-  </si>
-  <si>
-    <t>De: 03/10/2024 a 03/10/2025</t>
-  </si>
-  <si>
-    <t>JANE MARGOT SIGNOR PIAIA</t>
-  </si>
-  <si>
-    <t>R$ 3.238,20</t>
-  </si>
-  <si>
-    <t>R$ 3.477,17</t>
-  </si>
-  <si>
-    <t>480469 - COSTA E CAOVILA COR DE SEGUROS L</t>
-  </si>
-  <si>
-    <t>500766 - CS - ADMINISTRACAO E CORRETORA D</t>
-  </si>
-  <si>
-    <t>135386</t>
-  </si>
-  <si>
-    <t>ANTONIO ROBERTO CRIVELLARI</t>
-  </si>
-  <si>
-    <t>04/10/2024</t>
-  </si>
-  <si>
-    <t>R$ 1.184,81</t>
-  </si>
-  <si>
-    <t>R$ 1.272,24</t>
-  </si>
-  <si>
-    <t>404107 - DALAVA CORRETORA DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>135384</t>
-  </si>
-  <si>
-    <t>De: 06/10/2024 a 06/10/2025</t>
-  </si>
-  <si>
-    <t>SARA ROSANA ANGELIERI DA SILVA</t>
-  </si>
-  <si>
-    <t>R$ 1.814,08</t>
-  </si>
-  <si>
-    <t>R$ 1.947,95</t>
-  </si>
-  <si>
-    <t>402576 - DE GENNARO &amp; PAVANELLI G.S.C.S.P</t>
-  </si>
-  <si>
-    <t>135458</t>
-  </si>
-  <si>
-    <t>CIRO ROSS</t>
-  </si>
-  <si>
-    <t>R$ 2.060,62</t>
-  </si>
-  <si>
-    <t>R$ 2.212,69</t>
-  </si>
-  <si>
-    <t>448486 - DELA MARTA CORRETORA DE SEGUROS</t>
-  </si>
-  <si>
-    <t>135355</t>
-  </si>
-  <si>
-    <t>KARINA FELICIO PACHE</t>
-  </si>
-  <si>
-    <t>R$ 2.940,20</t>
-  </si>
-  <si>
-    <t>R$ 3.157,18</t>
-  </si>
-  <si>
-    <t>403399 - DODA PIVA COR.DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>402124 - DRIKA PIRES COR DE SEGS VIDA LT</t>
-  </si>
-  <si>
-    <t>501081 - DY CORRETORA DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>135373</t>
-  </si>
-  <si>
-    <t>De: 21/09/2024 a 21/09/2025</t>
-  </si>
-  <si>
-    <t>ADAUTO DONIZETE REAME</t>
-  </si>
-  <si>
-    <t>R$ 2.441,73</t>
-  </si>
-  <si>
-    <t>R$ 2.621,92</t>
-  </si>
-  <si>
-    <t>400490 - EDINETE CRISTIANE SEPRESSE PRETE</t>
-  </si>
-  <si>
-    <t>400441 - EDISON JOSE CORREA</t>
-  </si>
-  <si>
-    <t>494010 - ELOSEG CORRETORA DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>402853 - EXERCE CONS CORR SEGS LTDA</t>
-  </si>
-  <si>
-    <t>135327</t>
-  </si>
-  <si>
-    <t>De: 29/09/2024 a 29/09/2025</t>
-  </si>
-  <si>
-    <t>FERNANDO ANTONIO FILHO</t>
-  </si>
-  <si>
-    <t>R$ 1.702,25</t>
-  </si>
-  <si>
-    <t>R$ 2.057,84</t>
-  </si>
-  <si>
-    <t>402094 - EXODO CONFIANCA CORRETORA DE SEG</t>
-  </si>
-  <si>
-    <t>135437</t>
-  </si>
-  <si>
-    <t>PEDRO NESTOR TOSCA</t>
-  </si>
-  <si>
-    <t>R$ 1.336,46</t>
-  </si>
-  <si>
-    <t>R$ 1.435,09</t>
-  </si>
-  <si>
-    <t>443048 - EXP HAUS CORRETORA DE SEGUROS LT</t>
-  </si>
-  <si>
-    <t>12967</t>
-  </si>
-  <si>
-    <t>JOSE PAULO DE CASTRO</t>
-  </si>
-  <si>
-    <t>R$ 489,44</t>
-  </si>
-  <si>
-    <t>R$ 525,55</t>
-  </si>
-  <si>
-    <t>503554 - EXPERTISE CONSULTORIA E CORRETAG</t>
-  </si>
-  <si>
-    <t>135241</t>
-  </si>
-  <si>
-    <t>De: 13/09/2024 a 13/09/2025</t>
-  </si>
-  <si>
-    <t>CAROLINA ALVES COSTA</t>
-  </si>
-  <si>
-    <t>R$ 1.560,28</t>
-  </si>
-  <si>
-    <t>R$ 1.886,20</t>
-  </si>
-  <si>
-    <t>135490</t>
-  </si>
-  <si>
-    <t>De: 18/10/2024 a 18/10/2025</t>
-  </si>
-  <si>
-    <t>LUCAS BIASINI ZONARO</t>
-  </si>
-  <si>
-    <t>R$ 760,99</t>
-  </si>
-  <si>
-    <t>R$ 817,15</t>
-  </si>
-  <si>
-    <t>135423</t>
-  </si>
-  <si>
-    <t>ELIS REGINA LEME SOARES MAZZALI</t>
-  </si>
-  <si>
-    <t>R$ 1.817,42</t>
-  </si>
-  <si>
-    <t>R$ 1.951,54</t>
-  </si>
-  <si>
-    <t>491497 - F P DE SOUZA CORRETORA DE SEGURO</t>
-  </si>
-  <si>
-    <t>911 - CAMPINAS MERCADO</t>
-  </si>
-  <si>
-    <t>527109 - FAMA CORRETORA DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>528322 - FARIA COR DE SEG E PLANOS DE SAU</t>
-  </si>
-  <si>
-    <t>400715 - FERNANDA DE CARVALHO BRAGA</t>
-  </si>
-  <si>
-    <t>135485</t>
-  </si>
-  <si>
-    <t>CARLOS DAMIAO FERREIRA DA SILVA</t>
-  </si>
-  <si>
-    <t>R$ 2.359,33</t>
-  </si>
-  <si>
-    <t>R$ 2.533,44</t>
-  </si>
-  <si>
-    <t>516383 - FERNANDO FELIPE CORREA TAVARES</t>
-  </si>
-  <si>
-    <t>402420 - FORMAGGIO ADM E COR DE SEGS LTDA</t>
-  </si>
-  <si>
-    <t>926</t>
-  </si>
-  <si>
-    <t>6708</t>
-  </si>
-  <si>
-    <t>ESEARIO VICENTE DE ARAUJO</t>
-  </si>
-  <si>
-    <t>R$ 552,81</t>
-  </si>
-  <si>
-    <t>R$ 593,60</t>
-  </si>
-  <si>
-    <t>520581 - FOSTER CORR DE SEGS E SERVICOS F</t>
-  </si>
-  <si>
-    <t>497276 - FRANCISCO CARLOS NUNES DE OLIVEI</t>
-  </si>
-  <si>
-    <t>445211 - GERSON DOS SANTOS PAIVA</t>
-  </si>
-  <si>
-    <t>518405 - GHRANERO CORRETORA DE SEGUROS LT</t>
-  </si>
-  <si>
-    <t>403374 - GILIOLI &amp; ROSA COR.DE SEGS.LTDA</t>
-  </si>
-  <si>
-    <t>436770 - GOIS CONS E CORR DE SEGS LTDA</t>
-  </si>
-  <si>
-    <t>495516 - GR ATIBAIA CORRETORA DE SEGUROS</t>
-  </si>
-  <si>
-    <t>441593 - HERMES DAGOBERTO MOLINARI</t>
-  </si>
-  <si>
-    <t>493683 - IMPERIO BRASIL CORRETORA DE SEGU</t>
-  </si>
-  <si>
-    <t>135291</t>
-  </si>
-  <si>
-    <t>NATALIA VEIGA VIEIRA</t>
-  </si>
-  <si>
-    <t>R$ 2.066,14</t>
-  </si>
-  <si>
-    <t>R$ 2.218,62</t>
-  </si>
-  <si>
-    <t>501150 - INNOVACCI CORRETORA DE SEGUROS L</t>
-  </si>
-  <si>
-    <t>448526 - IVAN FURLAN</t>
-  </si>
-  <si>
-    <t>402261 - J.O. PERIGOLO CORRETORA DE SEGUR</t>
-  </si>
-  <si>
-    <t>403304 - JARYS CORRETORA DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>401055 - JEFFERSON FERNANDO ROSSI</t>
-  </si>
-  <si>
-    <t>483152 - JULIO CESAR VERONEZE ME</t>
-  </si>
-  <si>
-    <t>6668</t>
-  </si>
-  <si>
-    <t>FERNANDA ROVESSA 27443706812</t>
-  </si>
-  <si>
-    <t>R$ 267,91</t>
-  </si>
-  <si>
-    <t>R$ 287,66</t>
-  </si>
-  <si>
-    <t>527224 - JUNDSAFE CERTIFI DIGITAL E COR S</t>
-  </si>
-  <si>
-    <t>6689</t>
-  </si>
-  <si>
-    <t>De: 27/09/2024 a 27/09/2025</t>
-  </si>
-  <si>
-    <t>RECON COMERCIO DE EMBALAGENS LTDA</t>
-  </si>
-  <si>
-    <t>R$ 270,35</t>
-  </si>
-  <si>
-    <t>R$ 290,29</t>
-  </si>
-  <si>
-    <t>54790</t>
-  </si>
-  <si>
-    <t>MARTA COSTA MEGHINI</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>R$ 451,47</t>
-  </si>
-  <si>
-    <t>R$ 484,78</t>
-  </si>
-  <si>
-    <t>294483</t>
-  </si>
-  <si>
-    <t>SIRLEY MOURA GALVAO DA SILVA</t>
-  </si>
-  <si>
-    <t>R$ 2.713,03</t>
-  </si>
-  <si>
-    <t>R$ 2.913,25</t>
-  </si>
-  <si>
-    <t>294823</t>
-  </si>
-  <si>
-    <t>De: 13/10/2024 a 13/10/2025</t>
-  </si>
-  <si>
-    <t>GISELE MENDES SOUZA DODI</t>
-  </si>
-  <si>
-    <t>R$ 1.504,24</t>
-  </si>
-  <si>
-    <t>R$ 1.615,25</t>
-  </si>
-  <si>
-    <t>509058 - JVJ CORR DE SEGUROS E PLANOS DE</t>
-  </si>
-  <si>
-    <t>403854 - LACOURT FIDELITY CORRETORA DE SE</t>
-  </si>
-  <si>
-    <t>485905 - LAIR APARECIDO DA SILVA</t>
-  </si>
-  <si>
-    <t>135252</t>
-  </si>
-  <si>
-    <t>REGIANE APARECIDA MOREIRA GODOY</t>
-  </si>
-  <si>
-    <t>R$ 2.475,41</t>
-  </si>
-  <si>
-    <t>R$ 2.658,09</t>
-  </si>
-  <si>
-    <t>441917 - LED CORRETORA DE SEGUROS</t>
-  </si>
-  <si>
-    <t>521322 - LHSM CORRETORA DE SEGUROS EIRELI</t>
-  </si>
-  <si>
-    <t>135456</t>
-  </si>
-  <si>
-    <t>De: 28/09/2024 a 28/09/2025</t>
-  </si>
-  <si>
-    <t>METAL CRYO CRIOGENIA LTDA</t>
-  </si>
-  <si>
-    <t>R$ 2.506,93</t>
-  </si>
-  <si>
-    <t>R$ 2.691,94</t>
-  </si>
-  <si>
-    <t>400884 - LINCOLN ANDRE DA SILVA ZAGO</t>
-  </si>
-  <si>
-    <t>524524 - LOESCH E COSTA CORRETORA DE SEGU</t>
-  </si>
-  <si>
-    <t>503122 - LOTUS CORRETORA DE SEGUROS EIREL</t>
-  </si>
-  <si>
-    <t>486463 - LOUZADA CORRETORA DE SEGUROS LTD</t>
-  </si>
-  <si>
-    <t>402282 - LUAPER CORRETORA SEGS SC LTDA</t>
-  </si>
-  <si>
-    <t>135222</t>
-  </si>
-  <si>
-    <t>De: 18/09/2024 a 18/09/2025</t>
-  </si>
-  <si>
-    <t>MARIA REGINA FORNARI PUTTINI PAIXAO</t>
-  </si>
-  <si>
-    <t>R$ 3.630,32</t>
-  </si>
-  <si>
-    <t>R$ 3.898,23</t>
-  </si>
-  <si>
-    <t>403327 - LUCAVI CORRETORA DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>135427</t>
-  </si>
-  <si>
-    <t>ANDERSON ROBERTO GERTRUDES</t>
-  </si>
-  <si>
-    <t>R$ 6.469,44</t>
-  </si>
-  <si>
-    <t>R$ 6.946,88</t>
-  </si>
-  <si>
-    <t>135530</t>
-  </si>
-  <si>
-    <t>RENATO DAVANCO</t>
-  </si>
-  <si>
-    <t>R$ 2.366,58</t>
-  </si>
-  <si>
-    <t>R$ 2.541,23</t>
-  </si>
-  <si>
-    <t>135270</t>
-  </si>
-  <si>
-    <t>RODNEI RENIER GODOY</t>
-  </si>
-  <si>
-    <t>R$ 1.693,20</t>
-  </si>
-  <si>
-    <t>R$ 1.818,15</t>
-  </si>
-  <si>
-    <t>401153 - LUIZINHO APARECIDO DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>503799 - M E V CARDOZO CORRETORA DE SEGUR</t>
-  </si>
-  <si>
-    <t>513526 - MAC CORRETORA DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>509753 - MADALENA MONTEIRO COR SEG CONS E</t>
-  </si>
-  <si>
-    <t>501837 - MAFEL ASS E CORRETORA DE SEGUROS</t>
-  </si>
-  <si>
-    <t>12997</t>
-  </si>
-  <si>
-    <t>CASSIO JERONYMO CARDOSO</t>
-  </si>
-  <si>
-    <t>R$ 560,80</t>
-  </si>
-  <si>
-    <t>R$ 602,16</t>
-  </si>
-  <si>
-    <t>512605 - MANASEG CORRETORA DE SEGUROS LTD</t>
-  </si>
-  <si>
-    <t>135455</t>
-  </si>
-  <si>
-    <t>De: 26/09/2024 a 26/09/2025</t>
-  </si>
-  <si>
-    <t>JUSSARA HELENA BASSO THOMAZINI</t>
-  </si>
-  <si>
-    <t>R$ 1.690,59</t>
-  </si>
-  <si>
-    <t>R$ 1.815,35</t>
-  </si>
-  <si>
-    <t>294345</t>
-  </si>
-  <si>
-    <t>CRISTIANE APARECIDA GALLIGANI</t>
-  </si>
-  <si>
-    <t>R$ 2.775,34</t>
-  </si>
-  <si>
-    <t>R$ 2.980,16</t>
-  </si>
-  <si>
-    <t>526125 - MANTOVANI CORRETORA DE SEGUROS L</t>
-  </si>
-  <si>
-    <t>400527 - MARA DENISE DA SILVA</t>
-  </si>
-  <si>
-    <t>517733 - MARACOR CONSULT E CORR DE SEGS L</t>
-  </si>
-  <si>
-    <t>12962</t>
-  </si>
-  <si>
-    <t>DEBORA DA SILVA PIRES</t>
-  </si>
-  <si>
-    <t>R$ 740,18</t>
-  </si>
-  <si>
-    <t>R$ 794,78</t>
-  </si>
-  <si>
-    <t>508999 - MARCEL &amp; ABDULLAH CORR SEGS LTDA</t>
-  </si>
-  <si>
-    <t>498379 - MARCELI ANDRADE LEITE</t>
-  </si>
-  <si>
-    <t>403830 - MARCIO CHAMPION CORRETORA DE SEG</t>
-  </si>
-  <si>
-    <t>479453 - MARIA ELOINA STANGHERLIN</t>
-  </si>
-  <si>
-    <t>54723</t>
-  </si>
-  <si>
-    <t>ALOISIO ANTONIO MATTIUZZO</t>
-  </si>
-  <si>
-    <t>R$ 142,59</t>
-  </si>
-  <si>
-    <t>R$ 153,09</t>
-  </si>
-  <si>
-    <t>522922 - MARIA ELOINA STANGHERLIN SEGUROS</t>
-  </si>
-  <si>
-    <t>294255</t>
-  </si>
-  <si>
-    <t>De: 02/10/2024 a 02/10/2025</t>
-  </si>
-  <si>
-    <t>IGOR RUZANOWSKY GRILLO 25571759860</t>
-  </si>
-  <si>
-    <t>R$ 2.110,47</t>
-  </si>
-  <si>
-    <t>R$ 2.266,22</t>
-  </si>
-  <si>
-    <t>294539</t>
-  </si>
-  <si>
-    <t>CELIA FERREIRA GOMES</t>
-  </si>
-  <si>
-    <t>R$ 1.397,82</t>
-  </si>
-  <si>
-    <t>R$ 1.500,97</t>
-  </si>
-  <si>
-    <t>507142 - MARIA EUGENIA LUISI DA SILVA</t>
-  </si>
-  <si>
-    <t>400025 - MARIA VILMA FIGUEIREDO SOSTENA</t>
-  </si>
-  <si>
-    <t>400669 - MARISA BRUZADIM RAMOS CALANDRIM</t>
-  </si>
-  <si>
-    <t>401381 - MAWILE'S COR DE SEGS LTDA</t>
-  </si>
-  <si>
-    <t>404628 - MERCANTIL FERNAO DIAS COM IMPORT</t>
-  </si>
-  <si>
-    <t>529111 - MINSKI CORRETORA DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>510123 - MORUNGABA CORRETORA DE SEGUROS L</t>
-  </si>
-  <si>
-    <t>135251</t>
-  </si>
-  <si>
-    <t>CELTON NAPPI RODRIGUES</t>
-  </si>
-  <si>
-    <t>R$ 1.868,81</t>
-  </si>
-  <si>
-    <t>R$ 2.006,72</t>
-  </si>
-  <si>
-    <t>444070 - MR ALVES CORRETORA DE SEGUROS LT</t>
-  </si>
-  <si>
-    <t>135377</t>
-  </si>
-  <si>
-    <t>De: 07/10/2024 a 07/10/2025</t>
-  </si>
-  <si>
-    <t>ANA PAULA GUERRA</t>
-  </si>
-  <si>
-    <t>R$ 2.480,04</t>
-  </si>
-  <si>
-    <t>R$ 2.663,06</t>
-  </si>
-  <si>
-    <t>135392</t>
-  </si>
-  <si>
-    <t>FRV CONSTRUCOES LTDA EPP</t>
-  </si>
-  <si>
-    <t>R$ 2.941,05</t>
-  </si>
-  <si>
-    <t>R$ 3.158,09</t>
-  </si>
-  <si>
-    <t>135537</t>
-  </si>
-  <si>
-    <t>De: 11/10/2024 a 11/10/2025</t>
-  </si>
-  <si>
-    <t>ISABEL DE FATIMA FERNANDES SOARES</t>
-  </si>
-  <si>
-    <t>R$ 1.589,50</t>
-  </si>
-  <si>
-    <t>R$ 1.706,80</t>
-  </si>
-  <si>
-    <t>403546 - MX2 QUALITY SUPPORT ASS EMP E CO</t>
-  </si>
-  <si>
-    <t>411210 - NACAO SEGURA COR.DE SEGS.S/S LTD</t>
-  </si>
-  <si>
-    <t>501665 - NATAN SACCENTI LOPES</t>
-  </si>
-  <si>
-    <t>13017</t>
-  </si>
-  <si>
-    <t>ESMAEL NOBRE ORTOLANI</t>
-  </si>
-  <si>
-    <t>R$ 335,55</t>
-  </si>
-  <si>
-    <t>R$ 360,30</t>
+    <t>R$ 570,63</t>
+  </si>
+  <si>
+    <t>R$ 612,72</t>
   </si>
   <si>
     <t>492024 - NORTE A SUL CORRETORA DE SEGUROS</t>
   </si>
   <si>
-    <t>13023</t>
-  </si>
-  <si>
-    <t>EDISON APARECIDO CREMASCHI</t>
-  </si>
-  <si>
-    <t>R$ 520,88</t>
-  </si>
-  <si>
-    <t>R$ 559,28</t>
+    <t>136410</t>
+  </si>
+  <si>
+    <t>De: 01/11/2024 a 01/11/2025</t>
+  </si>
+  <si>
+    <t>VALDEVINO GOMES DA SILVA</t>
+  </si>
+  <si>
+    <t>R$ 2.557,37</t>
+  </si>
+  <si>
+    <t>R$ 2.746,10</t>
   </si>
   <si>
     <t>484309 - NOVA RIO CORR E SHOPPING DO SEGU</t>
   </si>
   <si>
-    <t>135336</t>
-  </si>
-  <si>
-    <t>ROSEMEIRE FRANCO DO AMARAL</t>
-  </si>
-  <si>
-    <t>R$ 1.800,82</t>
-  </si>
-  <si>
-    <t>R$ 1.933,72</t>
-  </si>
-  <si>
     <t>500066 - OAK CORRETORA DE SEGUROS LTDA</t>
   </si>
   <si>
-    <t>135435</t>
-  </si>
-  <si>
-    <t>De: 14/10/2024 a 14/10/2025</t>
-  </si>
-  <si>
-    <t>PRISCILA ALIPIO CAROTTA</t>
-  </si>
-  <si>
-    <t>R$ 4.116,01</t>
-  </si>
-  <si>
-    <t>R$ 4.419,77</t>
-  </si>
-  <si>
-    <t>1720</t>
-  </si>
-  <si>
-    <t>FALGAT ORGANIZACAO CONTABIL E ASSUNTOS FISCAIS</t>
-  </si>
-  <si>
-    <t>R$ 766,70</t>
-  </si>
-  <si>
-    <t>R$ 1.035,40</t>
-  </si>
-  <si>
     <t>443547 - OLIVEIRA E GATTI CORRETORA DE SE</t>
   </si>
   <si>
@@ -1208,18 +593,6 @@
     <t>501420 - PEDRO PICINI</t>
   </si>
   <si>
-    <t>135368</t>
-  </si>
-  <si>
-    <t>ANA CAROLINA DA CUNHA</t>
-  </si>
-  <si>
-    <t>R$ 4.620,34</t>
-  </si>
-  <si>
-    <t>R$ 6.119,18</t>
-  </si>
-  <si>
     <t>404830 - PEREIRA BUENO CORRET SEGS S/C LT</t>
   </si>
   <si>
@@ -1229,48 +602,9 @@
     <t>485422 - PHAULO GODOI CONS E COR DE SEGUR</t>
   </si>
   <si>
-    <t>12959</t>
-  </si>
-  <si>
-    <t>RONALDO LUIS DE CAMARGO</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>R$ 280,40</t>
-  </si>
-  <si>
-    <t>R$ 301,04</t>
-  </si>
-  <si>
     <t>405393 - PIMENTEL &amp; BOFF CORRETORA DE SEG</t>
   </si>
   <si>
-    <t>12993</t>
-  </si>
-  <si>
-    <t>MARIA GORETI DE LIMA</t>
-  </si>
-  <si>
-    <t>R$ 465,87</t>
-  </si>
-  <si>
-    <t>R$ 500,24</t>
-  </si>
-  <si>
-    <t>13015</t>
-  </si>
-  <si>
-    <t>SERGIO CARDOSO DA SILVA</t>
-  </si>
-  <si>
-    <t>R$ 273,43</t>
-  </si>
-  <si>
-    <t>R$ 293,60</t>
-  </si>
-  <si>
     <t>445447 - PIZZI &amp; PIZZI CORRETORA DE SEGUR</t>
   </si>
   <si>
@@ -1283,36 +617,9 @@
     <t>405106 - PROFSEG ITATIBA ADM COR SEGS LT</t>
   </si>
   <si>
-    <t>135354</t>
-  </si>
-  <si>
-    <t>FERNANDO MARCHIORI</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>R$ 2.870,57</t>
-  </si>
-  <si>
-    <t>R$ 3.082,41</t>
-  </si>
-  <si>
     <t>478852 - R Q DE ALMEIDA CORR DE SEGS ME</t>
   </si>
   <si>
-    <t>135468</t>
-  </si>
-  <si>
-    <t>FERNANDA REGINA NOGUEIRA DE SOUZA</t>
-  </si>
-  <si>
-    <t>R$ 1.648,48</t>
-  </si>
-  <si>
-    <t>R$ 1.770,13</t>
-  </si>
-  <si>
     <t>508772 - REGENTE CORRETORA DE SEGUROS LTD</t>
   </si>
   <si>
@@ -1325,18 +632,6 @@
     <t>401640 - RIED CONS.CORR.SEGUROS S/C LTDA.</t>
   </si>
   <si>
-    <t>135329</t>
-  </si>
-  <si>
-    <t>CLAUDIA DE PAULA SILVA</t>
-  </si>
-  <si>
-    <t>R$ 2.579,55</t>
-  </si>
-  <si>
-    <t>R$ 2.769,92</t>
-  </si>
-  <si>
     <t>400178 - RINALDO JOSE ZUIN</t>
   </si>
   <si>
@@ -1352,126 +647,24 @@
     <t>492018 - S2 CORRETORA DE SEGUROS</t>
   </si>
   <si>
-    <t>12986</t>
-  </si>
-  <si>
-    <t>ROGERIO EVANDRO RAMALHO</t>
-  </si>
-  <si>
-    <t>R$ 639,71</t>
-  </si>
-  <si>
-    <t>R$ 686,91</t>
-  </si>
-  <si>
     <t>403548 - SABIA LIMA CORRETORA DE SEGS LTD</t>
   </si>
   <si>
-    <t>135279</t>
-  </si>
-  <si>
-    <t>CELSO HENRIQUE SETTE</t>
-  </si>
-  <si>
-    <t>R$ 2.091,99</t>
-  </si>
-  <si>
-    <t>R$ 2.246,37</t>
-  </si>
-  <si>
-    <t>135507</t>
-  </si>
-  <si>
-    <t>CARLA CRISTINA DE MIRANDA</t>
-  </si>
-  <si>
-    <t>R$ 1.885,20</t>
-  </si>
-  <si>
-    <t>R$ 2.024,32</t>
-  </si>
-  <si>
-    <t>135450</t>
-  </si>
-  <si>
-    <t>JOAO LOPES TONETO</t>
-  </si>
-  <si>
-    <t>R$ 1.712,97</t>
-  </si>
-  <si>
-    <t>R$ 1.839,38</t>
-  </si>
-  <si>
     <t>495906 - SARA LAINETTE PEREIRA</t>
   </si>
   <si>
     <t>402944 - SECURIUM CORR SEGUROS LTDA</t>
   </si>
   <si>
-    <t>135245</t>
-  </si>
-  <si>
-    <t>REJANE ROSA LOPES</t>
-  </si>
-  <si>
-    <t>R$ 3.237,76</t>
-  </si>
-  <si>
-    <t>R$ 3.476,70</t>
-  </si>
-  <si>
     <t>510997 - SEG DESP CORR DE SEGU E DESPACHA</t>
   </si>
   <si>
     <t>495962 - SEGURO EFICAZ CORRETORA DE SEGUR</t>
   </si>
   <si>
-    <t>135322</t>
-  </si>
-  <si>
-    <t>De: 25/09/2024 a 25/09/2025</t>
-  </si>
-  <si>
-    <t>TECMONT ENGENHARIA E MONTAGENS DE ESTRUT</t>
-  </si>
-  <si>
-    <t>R$ 2.969,76</t>
-  </si>
-  <si>
-    <t>R$ 3.188,92</t>
-  </si>
-  <si>
     <t>403237 - SENTA A PUA CORRETORA DE SEGUROS</t>
   </si>
   <si>
-    <t>135345</t>
-  </si>
-  <si>
-    <t>LUIS CELSO DOS SANTOS PEREIRA DA SILVA</t>
-  </si>
-  <si>
-    <t>R$ 1.285,45</t>
-  </si>
-  <si>
-    <t>R$ 1.380,31</t>
-  </si>
-  <si>
-    <t>135506</t>
-  </si>
-  <si>
-    <t>De: 19/10/2024 a 19/10/2025</t>
-  </si>
-  <si>
-    <t>CAMILA DE MORAES PRADO</t>
-  </si>
-  <si>
-    <t>R$ 2.176,08</t>
-  </si>
-  <si>
-    <t>R$ 2.336,67</t>
-  </si>
-  <si>
     <t>503557 - SEVEN B ADM CONS GEREN RISCO E C</t>
   </si>
   <si>
@@ -1484,18 +677,6 @@
     <t>402622 - SOPACC BRAGSEG-BRANGANCA C.C.S.L</t>
   </si>
   <si>
-    <t>135338</t>
-  </si>
-  <si>
-    <t>CAROLINE LEME CAMARGO GONCALVES</t>
-  </si>
-  <si>
-    <t>R$ 1.532,34</t>
-  </si>
-  <si>
-    <t>R$ 1.645,42</t>
-  </si>
-  <si>
     <t>405119 - SOUZA SILVA ADM.COR.SEGS LTDA.</t>
   </si>
   <si>
@@ -1508,84 +689,33 @@
     <t>436265 - TEGMINE CORRETORA DE SEGUROS LTD</t>
   </si>
   <si>
+    <t>136395</t>
+  </si>
+  <si>
+    <t>ALEXANDRE BENEDITO MARINHO</t>
+  </si>
+  <si>
+    <t>R$ 2.261,69</t>
+  </si>
+  <si>
+    <t>R$ 2.428,60</t>
+  </si>
+  <si>
     <t>448548 - TIAGO R VIOTTI CORR DE SEGS ME</t>
   </si>
   <si>
     <t>495847 - TOP ALTA PROTECAO CORRETORA DE S</t>
   </si>
   <si>
-    <t>54894</t>
-  </si>
-  <si>
-    <t>JULIANO PIRES DE CAMARGO</t>
-  </si>
-  <si>
-    <t>R$ 232,99</t>
-  </si>
-  <si>
-    <t>R$ 250,15</t>
-  </si>
-  <si>
     <t>529112 - UPON CORRETORA DE SEGUROS LTDA</t>
   </si>
   <si>
-    <t>294851</t>
-  </si>
-  <si>
-    <t>ADILIO ALVES MOREIRA</t>
-  </si>
-  <si>
-    <t>R$ 1.425,88</t>
-  </si>
-  <si>
-    <t>R$ 1.531,10</t>
-  </si>
-  <si>
-    <t>294933</t>
-  </si>
-  <si>
-    <t>De: 09/10/2024 a 09/10/2025</t>
-  </si>
-  <si>
-    <t>JESSICA ANDRESSA MAIA ROSA DE ARAUJO</t>
-  </si>
-  <si>
-    <t>R$ 2.575,53</t>
-  </si>
-  <si>
-    <t>R$ 2.765,60</t>
-  </si>
-  <si>
     <t>510999 - VAICOM CORRETORA DE SEGUROS LTDA</t>
   </si>
   <si>
-    <t>135330</t>
-  </si>
-  <si>
-    <t>ARMANDO CODARIN</t>
-  </si>
-  <si>
-    <t>R$ 1.134,63</t>
-  </si>
-  <si>
-    <t>R$ 1.218,36</t>
-  </si>
-  <si>
     <t>404047 - VERDI &amp; CUNHA COR DE SEGS LTDA</t>
   </si>
   <si>
-    <t>135460</t>
-  </si>
-  <si>
-    <t>GISELE APARECIDA DE SOUZA RODRIGUES</t>
-  </si>
-  <si>
-    <t>R$ 2.257,17</t>
-  </si>
-  <si>
-    <t>R$ 2.423,74</t>
-  </si>
-  <si>
     <t>404048 - VIANELO CORRETORA DE SEGUROS LTD</t>
   </si>
   <si>
@@ -1598,43 +728,7 @@
     <t>402193 - YARA CORRETORA DE SEGUROS LTDA</t>
   </si>
   <si>
-    <t>13004</t>
-  </si>
-  <si>
-    <t>SILVANA APARECIDA DE ALMEIDA</t>
-  </si>
-  <si>
-    <t>R$ 181,21</t>
-  </si>
-  <si>
-    <t>R$ 194,57</t>
-  </si>
-  <si>
     <t>402194 - YARA CORRETORA DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>135292</t>
-  </si>
-  <si>
-    <t>ROBERTO VINICIUS RAMOS</t>
-  </si>
-  <si>
-    <t>R$ 2.017,81</t>
-  </si>
-  <si>
-    <t>R$ 2.166,72</t>
-  </si>
-  <si>
-    <t>135374</t>
-  </si>
-  <si>
-    <t>MOACIR DOMINGUES</t>
-  </si>
-  <si>
-    <t>R$ 1.853,01</t>
-  </si>
-  <si>
-    <t>R$ 1.989,76</t>
   </si>
   <si>
     <t>520278 - ZANNI CONSULTORIA E CORR DE SEGU</t>
@@ -1682,7 +776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R189"/>
+  <dimension ref="A1:R154"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1858,58 +952,58 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" t="s">
         <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -1965,7 +1059,7 @@
         <v>22</v>
       </c>
       <c r="R5" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -2021,157 +1115,157 @@
         <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" t="s">
         <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" t="s">
         <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P8" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>22</v>
-      </c>
-      <c r="R8" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="L9" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="M9" t="s">
         <v>18</v>
@@ -2189,45 +1283,45 @@
         <v>22</v>
       </c>
       <c r="R9" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="L10" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="M10" t="s">
         <v>18</v>
@@ -2245,7 +1339,7 @@
         <v>22</v>
       </c>
       <c r="R10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -2301,7 +1395,7 @@
         <v>22</v>
       </c>
       <c r="R11" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -2357,7 +1451,7 @@
         <v>22</v>
       </c>
       <c r="R12" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -2413,7 +1507,7 @@
         <v>22</v>
       </c>
       <c r="R13" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -2469,7 +1563,7 @@
         <v>22</v>
       </c>
       <c r="R14" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15">
@@ -2525,45 +1619,45 @@
         <v>22</v>
       </c>
       <c r="R15" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="J16" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="K16" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="L16" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="M16" t="s">
         <v>18</v>
@@ -2581,45 +1675,45 @@
         <v>22</v>
       </c>
       <c r="R16" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I17" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J17" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="K17" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="L17" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="M17" t="s">
         <v>18</v>
@@ -2637,45 +1731,45 @@
         <v>22</v>
       </c>
       <c r="R17" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I18" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="J18" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="K18" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="L18" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="M18" t="s">
         <v>18</v>
@@ -2693,45 +1787,45 @@
         <v>22</v>
       </c>
       <c r="R18" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="K19" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="M19" t="s">
         <v>18</v>
@@ -2749,7 +1843,7 @@
         <v>22</v>
       </c>
       <c r="R19" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
@@ -2805,7 +1899,7 @@
         <v>22</v>
       </c>
       <c r="R20" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
@@ -2861,7 +1955,7 @@
         <v>22</v>
       </c>
       <c r="R21" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
@@ -2917,45 +2011,45 @@
         <v>22</v>
       </c>
       <c r="R22" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="J23" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="K23" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="L23" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="M23" t="s">
         <v>18</v>
@@ -2973,7 +2067,7 @@
         <v>22</v>
       </c>
       <c r="R23" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
@@ -3029,45 +2123,45 @@
         <v>22</v>
       </c>
       <c r="R24" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="J25" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="K25" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="L25" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="M25" t="s">
         <v>18</v>
@@ -3085,7 +2179,7 @@
         <v>22</v>
       </c>
       <c r="R25" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26">
@@ -3141,7 +2235,7 @@
         <v>22</v>
       </c>
       <c r="R26" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27">
@@ -3197,45 +2291,45 @@
         <v>22</v>
       </c>
       <c r="R27" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F28" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I28" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="J28" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="K28" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="L28" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="M28" t="s">
         <v>18</v>
@@ -3253,45 +2347,45 @@
         <v>22</v>
       </c>
       <c r="R28" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="G29" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="H29" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="J29" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="K29" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="L29" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="M29" t="s">
         <v>18</v>
@@ -3309,7 +2403,7 @@
         <v>22</v>
       </c>
       <c r="R29" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30">
@@ -3365,45 +2459,45 @@
         <v>22</v>
       </c>
       <c r="R30" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F31" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="H31" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I31" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="J31" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="K31" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="L31" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="M31" t="s">
         <v>18</v>
@@ -3421,7 +2515,7 @@
         <v>22</v>
       </c>
       <c r="R31" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32">
@@ -3477,45 +2571,45 @@
         <v>22</v>
       </c>
       <c r="R32" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E33" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="J33" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="K33" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="L33" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="M33" t="s">
         <v>18</v>
@@ -3533,45 +2627,45 @@
         <v>22</v>
       </c>
       <c r="R33" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="J34" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="K34" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="L34" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="M34" t="s">
         <v>18</v>
@@ -3589,45 +2683,45 @@
         <v>22</v>
       </c>
       <c r="R34" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F35" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
+        <v>51</v>
+      </c>
+      <c r="J35" t="s">
         <v>69</v>
       </c>
-      <c r="J35" t="s">
-        <v>28</v>
-      </c>
       <c r="K35" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="L35" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="M35" t="s">
         <v>18</v>
@@ -3645,45 +2739,45 @@
         <v>22</v>
       </c>
       <c r="R35" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="H36" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I36" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J36" t="s">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="K36" t="s">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="L36" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="M36" t="s">
         <v>18</v>
@@ -3701,45 +2795,45 @@
         <v>22</v>
       </c>
       <c r="R36" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F37" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="H37" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I37" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="J37" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="K37" t="s">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="L37" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="M37" t="s">
         <v>18</v>
@@ -3757,7 +2851,7 @@
         <v>22</v>
       </c>
       <c r="R37" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38">
@@ -3813,45 +2907,45 @@
         <v>22</v>
       </c>
       <c r="R38" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E39" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F39" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="H39" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I39" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="J39" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="K39" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="L39" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="M39" t="s">
         <v>18</v>
@@ -3869,45 +2963,45 @@
         <v>22</v>
       </c>
       <c r="R39" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F40" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="H40" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I40" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="J40" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="K40" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="L40" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="M40" t="s">
         <v>18</v>
@@ -3925,45 +3019,45 @@
         <v>22</v>
       </c>
       <c r="R40" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F41" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="H41" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I41" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J41" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="K41" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="L41" t="s">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="M41" t="s">
         <v>18</v>
@@ -3981,7 +3075,7 @@
         <v>22</v>
       </c>
       <c r="R41" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42">
@@ -4037,45 +3131,45 @@
         <v>22</v>
       </c>
       <c r="R42" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E43" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F43" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="H43" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I43" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="J43" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="K43" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="L43" t="s">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="M43" t="s">
         <v>18</v>
@@ -4093,7 +3187,7 @@
         <v>22</v>
       </c>
       <c r="R43" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44">
@@ -4149,7 +3243,7 @@
         <v>22</v>
       </c>
       <c r="R44" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45">
@@ -4205,45 +3299,45 @@
         <v>22</v>
       </c>
       <c r="R45" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E46" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F46" t="s">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I46" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="J46" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="K46" t="s">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="L46" t="s">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="M46" t="s">
         <v>18</v>
@@ -4261,7 +3355,7 @@
         <v>22</v>
       </c>
       <c r="R46" t="s">
-        <v>166</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47">
@@ -4317,7 +3411,7 @@
         <v>22</v>
       </c>
       <c r="R47" t="s">
-        <v>167</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48">
@@ -4367,13 +3461,13 @@
         <v>20</v>
       </c>
       <c r="P48" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="Q48" t="s">
         <v>22</v>
       </c>
       <c r="R48" t="s">
-        <v>168</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49">
@@ -4423,51 +3517,51 @@
         <v>20</v>
       </c>
       <c r="P49" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="Q49" t="s">
         <v>22</v>
       </c>
       <c r="R49" t="s">
-        <v>169</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E50" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F50" t="s">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="G50" t="s">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="H50" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I50" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="J50" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="K50" t="s">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="L50" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="M50" t="s">
         <v>18</v>
@@ -4485,45 +3579,45 @@
         <v>22</v>
       </c>
       <c r="R50" t="s">
-        <v>175</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E51" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F51" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="G51" t="s">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="H51" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I51" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="J51" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="K51" t="s">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="L51" t="s">
-        <v>179</v>
+        <v>18</v>
       </c>
       <c r="M51" t="s">
         <v>18</v>
@@ -4541,7 +3635,7 @@
         <v>22</v>
       </c>
       <c r="R51" t="s">
-        <v>175</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52">
@@ -4597,45 +3691,45 @@
         <v>22</v>
       </c>
       <c r="R52" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E53" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F53" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="G53" t="s">
-        <v>182</v>
+        <v>18</v>
       </c>
       <c r="H53" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I53" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="J53" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="K53" t="s">
-        <v>183</v>
+        <v>18</v>
       </c>
       <c r="L53" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="M53" t="s">
         <v>18</v>
@@ -4647,51 +3741,51 @@
         <v>20</v>
       </c>
       <c r="P53" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="Q53" t="s">
         <v>22</v>
       </c>
       <c r="R53" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="D54" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E54" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F54" t="s">
-        <v>187</v>
+        <v>18</v>
       </c>
       <c r="G54" t="s">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="H54" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I54" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="J54" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="K54" t="s">
-        <v>189</v>
+        <v>18</v>
       </c>
       <c r="L54" t="s">
-        <v>190</v>
+        <v>18</v>
       </c>
       <c r="M54" t="s">
         <v>18</v>
@@ -4709,45 +3803,45 @@
         <v>22</v>
       </c>
       <c r="R54" t="s">
-        <v>185</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E55" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F55" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
       <c r="G55" t="s">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="H55" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I55" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J55" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="K55" t="s">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="L55" t="s">
-        <v>195</v>
+        <v>18</v>
       </c>
       <c r="M55" t="s">
         <v>18</v>
@@ -4765,45 +3859,45 @@
         <v>22</v>
       </c>
       <c r="R55" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>196</v>
+        <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E56" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F56" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="G56" t="s">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="H56" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I56" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="J56" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="K56" t="s">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="L56" t="s">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="M56" t="s">
         <v>18</v>
@@ -4821,7 +3915,7 @@
         <v>22</v>
       </c>
       <c r="R56" t="s">
-        <v>200</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57">
@@ -4871,13 +3965,13 @@
         <v>20</v>
       </c>
       <c r="P57" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="Q57" t="s">
         <v>22</v>
       </c>
       <c r="R57" t="s">
-        <v>202</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58">
@@ -4927,13 +4021,13 @@
         <v>20</v>
       </c>
       <c r="P58" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="Q58" t="s">
         <v>22</v>
       </c>
       <c r="R58" t="s">
-        <v>203</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59">
@@ -4989,45 +4083,45 @@
         <v>22</v>
       </c>
       <c r="R59" t="s">
-        <v>204</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B60" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>205</v>
+        <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E60" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F60" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="G60" t="s">
-        <v>206</v>
+        <v>18</v>
       </c>
       <c r="H60" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I60" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J60" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="K60" t="s">
-        <v>207</v>
+        <v>18</v>
       </c>
       <c r="L60" t="s">
-        <v>208</v>
+        <v>18</v>
       </c>
       <c r="M60" t="s">
         <v>18</v>
@@ -5045,7 +4139,7 @@
         <v>22</v>
       </c>
       <c r="R60" t="s">
-        <v>209</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61">
@@ -5101,45 +4195,45 @@
         <v>22</v>
       </c>
       <c r="R61" t="s">
-        <v>210</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B62" t="s">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="C62" t="s">
-        <v>212</v>
+        <v>115</v>
       </c>
       <c r="D62" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E62" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="G62" t="s">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="H62" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J62" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="K62" t="s">
-        <v>214</v>
+        <v>118</v>
       </c>
       <c r="L62" t="s">
-        <v>215</v>
+        <v>119</v>
       </c>
       <c r="M62" t="s">
         <v>18</v>
@@ -5151,13 +4245,13 @@
         <v>20</v>
       </c>
       <c r="P62" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="Q62" t="s">
         <v>22</v>
       </c>
       <c r="R62" t="s">
-        <v>216</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63">
@@ -5213,7 +4307,7 @@
         <v>22</v>
       </c>
       <c r="R63" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64">
@@ -5269,7 +4363,7 @@
         <v>22</v>
       </c>
       <c r="R64" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65">
@@ -5325,7 +4419,7 @@
         <v>22</v>
       </c>
       <c r="R65" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66">
@@ -5381,45 +4475,45 @@
         <v>22</v>
       </c>
       <c r="R66" t="s">
-        <v>220</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C67" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E67" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="G67" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="H67" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="J67" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="K67" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="L67" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="M67" t="s">
         <v>18</v>
@@ -5437,45 +4531,45 @@
         <v>22</v>
       </c>
       <c r="R67" t="s">
-        <v>221</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="C68" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E68" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="G68" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="H68" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="J68" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="K68" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="L68" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="M68" t="s">
         <v>18</v>
@@ -5487,13 +4581,13 @@
         <v>20</v>
       </c>
       <c r="P68" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="Q68" t="s">
         <v>22</v>
       </c>
       <c r="R68" t="s">
-        <v>222</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69">
@@ -5549,7 +4643,7 @@
         <v>22</v>
       </c>
       <c r="R69" t="s">
-        <v>223</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70">
@@ -5605,45 +4699,45 @@
         <v>22</v>
       </c>
       <c r="R70" t="s">
-        <v>224</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C71" t="s">
-        <v>225</v>
+        <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E71" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F71" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="G71" t="s">
-        <v>226</v>
+        <v>18</v>
       </c>
       <c r="H71" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I71" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="J71" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="K71" t="s">
-        <v>227</v>
+        <v>18</v>
       </c>
       <c r="L71" t="s">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="M71" t="s">
         <v>18</v>
@@ -5661,7 +4755,7 @@
         <v>22</v>
       </c>
       <c r="R71" t="s">
-        <v>229</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72">
@@ -5717,7 +4811,7 @@
         <v>22</v>
       </c>
       <c r="R72" t="s">
-        <v>230</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73">
@@ -5767,13 +4861,13 @@
         <v>20</v>
       </c>
       <c r="P73" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="Q73" t="s">
         <v>22</v>
       </c>
       <c r="R73" t="s">
-        <v>231</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74">
@@ -5829,7 +4923,7 @@
         <v>22</v>
       </c>
       <c r="R74" t="s">
-        <v>232</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75">
@@ -5879,13 +4973,13 @@
         <v>20</v>
       </c>
       <c r="P75" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="Q75" t="s">
         <v>22</v>
       </c>
       <c r="R75" t="s">
-        <v>233</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76">
@@ -5941,45 +5035,45 @@
         <v>22</v>
       </c>
       <c r="R76" t="s">
-        <v>234</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B77" t="s">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="C77" t="s">
-        <v>235</v>
+        <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E77" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G77" t="s">
-        <v>236</v>
+        <v>18</v>
       </c>
       <c r="H77" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I77" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="J77" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K77" t="s">
-        <v>237</v>
+        <v>18</v>
       </c>
       <c r="L77" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="M77" t="s">
         <v>18</v>
@@ -5991,51 +5085,51 @@
         <v>20</v>
       </c>
       <c r="P77" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="Q77" t="s">
         <v>22</v>
       </c>
       <c r="R77" t="s">
-        <v>239</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B78" t="s">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="C78" t="s">
-        <v>240</v>
+        <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E78" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F78" t="s">
-        <v>241</v>
+        <v>18</v>
       </c>
       <c r="G78" t="s">
-        <v>242</v>
+        <v>18</v>
       </c>
       <c r="H78" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I78" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="J78" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="K78" t="s">
-        <v>243</v>
+        <v>18</v>
       </c>
       <c r="L78" t="s">
-        <v>244</v>
+        <v>18</v>
       </c>
       <c r="M78" t="s">
         <v>18</v>
@@ -6047,51 +5141,51 @@
         <v>20</v>
       </c>
       <c r="P78" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="Q78" t="s">
         <v>22</v>
       </c>
       <c r="R78" t="s">
-        <v>239</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B79" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>245</v>
+        <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E79" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F79" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="G79" t="s">
-        <v>246</v>
+        <v>18</v>
       </c>
       <c r="H79" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I79" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="J79" t="s">
-        <v>247</v>
+        <v>18</v>
       </c>
       <c r="K79" t="s">
-        <v>248</v>
+        <v>18</v>
       </c>
       <c r="L79" t="s">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="M79" t="s">
         <v>18</v>
@@ -6103,51 +5197,51 @@
         <v>20</v>
       </c>
       <c r="P79" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="Q79" t="s">
         <v>22</v>
       </c>
       <c r="R79" t="s">
-        <v>239</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B80" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C80" t="s">
-        <v>250</v>
+        <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E80" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F80" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="G80" t="s">
-        <v>251</v>
+        <v>18</v>
       </c>
       <c r="H80" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I80" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="J80" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="K80" t="s">
-        <v>252</v>
+        <v>18</v>
       </c>
       <c r="L80" t="s">
-        <v>253</v>
+        <v>18</v>
       </c>
       <c r="M80" t="s">
         <v>18</v>
@@ -6159,51 +5253,51 @@
         <v>20</v>
       </c>
       <c r="P80" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="Q80" t="s">
         <v>22</v>
       </c>
       <c r="R80" t="s">
-        <v>239</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B81" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C81" t="s">
-        <v>254</v>
+        <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E81" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F81" t="s">
-        <v>255</v>
+        <v>18</v>
       </c>
       <c r="G81" t="s">
-        <v>256</v>
+        <v>18</v>
       </c>
       <c r="H81" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I81" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J81" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="K81" t="s">
-        <v>257</v>
+        <v>18</v>
       </c>
       <c r="L81" t="s">
-        <v>258</v>
+        <v>18</v>
       </c>
       <c r="M81" t="s">
         <v>18</v>
@@ -6215,13 +5309,13 @@
         <v>20</v>
       </c>
       <c r="P81" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="Q81" t="s">
         <v>22</v>
       </c>
       <c r="R81" t="s">
-        <v>239</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82">
@@ -6277,7 +5371,7 @@
         <v>22</v>
       </c>
       <c r="R82" t="s">
-        <v>259</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83">
@@ -6333,7 +5427,7 @@
         <v>22</v>
       </c>
       <c r="R83" t="s">
-        <v>260</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84">
@@ -6389,45 +5483,45 @@
         <v>22</v>
       </c>
       <c r="R84" t="s">
-        <v>261</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B85" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C85" t="s">
-        <v>262</v>
+        <v>18</v>
       </c>
       <c r="D85" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E85" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F85" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="G85" t="s">
-        <v>263</v>
+        <v>18</v>
       </c>
       <c r="H85" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I85" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="J85" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="K85" t="s">
-        <v>264</v>
+        <v>18</v>
       </c>
       <c r="L85" t="s">
-        <v>265</v>
+        <v>18</v>
       </c>
       <c r="M85" t="s">
         <v>18</v>
@@ -6445,7 +5539,7 @@
         <v>22</v>
       </c>
       <c r="R85" t="s">
-        <v>266</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86">
@@ -6495,51 +5589,51 @@
         <v>20</v>
       </c>
       <c r="P86" t="s">
-        <v>201</v>
+        <v>100</v>
       </c>
       <c r="Q86" t="s">
         <v>22</v>
       </c>
       <c r="R86" t="s">
-        <v>267</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B87" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C87" t="s">
-        <v>268</v>
+        <v>18</v>
       </c>
       <c r="D87" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E87" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F87" t="s">
-        <v>269</v>
+        <v>18</v>
       </c>
       <c r="G87" t="s">
-        <v>270</v>
+        <v>18</v>
       </c>
       <c r="H87" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I87" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J87" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="K87" t="s">
-        <v>271</v>
+        <v>18</v>
       </c>
       <c r="L87" t="s">
-        <v>272</v>
+        <v>18</v>
       </c>
       <c r="M87" t="s">
         <v>18</v>
@@ -6557,7 +5651,7 @@
         <v>22</v>
       </c>
       <c r="R87" t="s">
-        <v>273</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88">
@@ -6607,13 +5701,13 @@
         <v>20</v>
       </c>
       <c r="P88" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="Q88" t="s">
         <v>22</v>
       </c>
       <c r="R88" t="s">
-        <v>274</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89">
@@ -6669,7 +5763,7 @@
         <v>22</v>
       </c>
       <c r="R89" t="s">
-        <v>275</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90">
@@ -6725,7 +5819,7 @@
         <v>22</v>
       </c>
       <c r="R90" t="s">
-        <v>276</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91">
@@ -6781,45 +5875,45 @@
         <v>22</v>
       </c>
       <c r="R91" t="s">
-        <v>277</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B92" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C92" t="s">
-        <v>278</v>
+        <v>18</v>
       </c>
       <c r="D92" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E92" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F92" t="s">
-        <v>279</v>
+        <v>18</v>
       </c>
       <c r="G92" t="s">
-        <v>280</v>
+        <v>18</v>
       </c>
       <c r="H92" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I92" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="J92" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="K92" t="s">
-        <v>281</v>
+        <v>18</v>
       </c>
       <c r="L92" t="s">
-        <v>282</v>
+        <v>18</v>
       </c>
       <c r="M92" t="s">
         <v>18</v>
@@ -6831,51 +5925,51 @@
         <v>20</v>
       </c>
       <c r="P92" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="Q92" t="s">
         <v>22</v>
       </c>
       <c r="R92" t="s">
-        <v>283</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C93" t="s">
-        <v>284</v>
+        <v>18</v>
       </c>
       <c r="D93" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E93" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F93" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="G93" t="s">
-        <v>285</v>
+        <v>18</v>
       </c>
       <c r="H93" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I93" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="J93" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="K93" t="s">
-        <v>286</v>
+        <v>18</v>
       </c>
       <c r="L93" t="s">
-        <v>287</v>
+        <v>18</v>
       </c>
       <c r="M93" t="s">
         <v>18</v>
@@ -6893,45 +5987,45 @@
         <v>22</v>
       </c>
       <c r="R93" t="s">
-        <v>283</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B94" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C94" t="s">
-        <v>288</v>
+        <v>18</v>
       </c>
       <c r="D94" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E94" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="G94" t="s">
-        <v>289</v>
+        <v>18</v>
       </c>
       <c r="H94" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I94" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="J94" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="K94" t="s">
-        <v>290</v>
+        <v>18</v>
       </c>
       <c r="L94" t="s">
-        <v>291</v>
+        <v>18</v>
       </c>
       <c r="M94" t="s">
         <v>18</v>
@@ -6949,45 +6043,45 @@
         <v>22</v>
       </c>
       <c r="R94" t="s">
-        <v>283</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B95" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C95" t="s">
-        <v>292</v>
+        <v>18</v>
       </c>
       <c r="D95" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E95" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F95" t="s">
-        <v>269</v>
+        <v>18</v>
       </c>
       <c r="G95" t="s">
-        <v>293</v>
+        <v>18</v>
       </c>
       <c r="H95" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I95" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="J95" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="K95" t="s">
-        <v>294</v>
+        <v>18</v>
       </c>
       <c r="L95" t="s">
-        <v>295</v>
+        <v>18</v>
       </c>
       <c r="M95" t="s">
         <v>18</v>
@@ -7005,7 +6099,7 @@
         <v>22</v>
       </c>
       <c r="R95" t="s">
-        <v>296</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96">
@@ -7061,7 +6155,7 @@
         <v>22</v>
       </c>
       <c r="R96" t="s">
-        <v>297</v>
+        <v>166</v>
       </c>
     </row>
     <row r="97">
@@ -7117,7 +6211,7 @@
         <v>22</v>
       </c>
       <c r="R97" t="s">
-        <v>298</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98">
@@ -7167,13 +6261,13 @@
         <v>20</v>
       </c>
       <c r="P98" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="Q98" t="s">
         <v>22</v>
       </c>
       <c r="R98" t="s">
-        <v>299</v>
+        <v>168</v>
       </c>
     </row>
     <row r="99">
@@ -7229,45 +6323,45 @@
         <v>22</v>
       </c>
       <c r="R99" t="s">
-        <v>300</v>
+        <v>169</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B100" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C100" t="s">
-        <v>301</v>
+        <v>18</v>
       </c>
       <c r="D100" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E100" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F100" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="G100" t="s">
-        <v>302</v>
+        <v>18</v>
       </c>
       <c r="H100" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I100" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="J100" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="K100" t="s">
-        <v>303</v>
+        <v>18</v>
       </c>
       <c r="L100" t="s">
-        <v>304</v>
+        <v>18</v>
       </c>
       <c r="M100" t="s">
         <v>18</v>
@@ -7285,45 +6379,45 @@
         <v>22</v>
       </c>
       <c r="R100" t="s">
-        <v>305</v>
+        <v>170</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B101" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C101" t="s">
-        <v>306</v>
+        <v>18</v>
       </c>
       <c r="D101" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E101" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F101" t="s">
-        <v>307</v>
+        <v>18</v>
       </c>
       <c r="G101" t="s">
-        <v>308</v>
+        <v>18</v>
       </c>
       <c r="H101" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I101" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J101" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="K101" t="s">
-        <v>309</v>
+        <v>18</v>
       </c>
       <c r="L101" t="s">
-        <v>310</v>
+        <v>18</v>
       </c>
       <c r="M101" t="s">
         <v>18</v>
@@ -7341,45 +6435,45 @@
         <v>22</v>
       </c>
       <c r="R101" t="s">
-        <v>305</v>
+        <v>171</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B102" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C102" t="s">
-        <v>311</v>
+        <v>18</v>
       </c>
       <c r="D102" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E102" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F102" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="G102" t="s">
-        <v>312</v>
+        <v>18</v>
       </c>
       <c r="H102" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I102" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="J102" t="s">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="K102" t="s">
-        <v>313</v>
+        <v>18</v>
       </c>
       <c r="L102" t="s">
-        <v>314</v>
+        <v>18</v>
       </c>
       <c r="M102" t="s">
         <v>18</v>
@@ -7391,13 +6485,13 @@
         <v>20</v>
       </c>
       <c r="P102" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="Q102" t="s">
         <v>22</v>
       </c>
       <c r="R102" t="s">
-        <v>315</v>
+        <v>172</v>
       </c>
     </row>
     <row r="103">
@@ -7453,45 +6547,45 @@
         <v>22</v>
       </c>
       <c r="R103" t="s">
-        <v>316</v>
+        <v>173</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B104" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="C104" t="s">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="D104" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E104" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="G104" t="s">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="H104" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="J104" t="s">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="K104" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="L104" t="s">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="M104" t="s">
         <v>18</v>
@@ -7509,45 +6603,45 @@
         <v>22</v>
       </c>
       <c r="R104" t="s">
-        <v>317</v>
+        <v>180</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B105" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C105" t="s">
-        <v>318</v>
+        <v>181</v>
       </c>
       <c r="D105" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E105" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F105" t="s">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="G105" t="s">
-        <v>319</v>
+        <v>183</v>
       </c>
       <c r="H105" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="J105" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="K105" t="s">
-        <v>320</v>
+        <v>184</v>
       </c>
       <c r="L105" t="s">
-        <v>321</v>
+        <v>185</v>
       </c>
       <c r="M105" t="s">
         <v>18</v>
@@ -7565,7 +6659,7 @@
         <v>22</v>
       </c>
       <c r="R105" t="s">
-        <v>322</v>
+        <v>186</v>
       </c>
     </row>
     <row r="106">
@@ -7621,7 +6715,7 @@
         <v>22</v>
       </c>
       <c r="R106" t="s">
-        <v>323</v>
+        <v>187</v>
       </c>
     </row>
     <row r="107">
@@ -7677,7 +6771,7 @@
         <v>22</v>
       </c>
       <c r="R107" t="s">
-        <v>324</v>
+        <v>188</v>
       </c>
     </row>
     <row r="108">
@@ -7733,45 +6827,45 @@
         <v>22</v>
       </c>
       <c r="R108" t="s">
-        <v>325</v>
+        <v>189</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B109" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C109" t="s">
-        <v>326</v>
+        <v>18</v>
       </c>
       <c r="D109" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E109" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F109" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="G109" t="s">
-        <v>327</v>
+        <v>18</v>
       </c>
       <c r="H109" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I109" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="J109" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="K109" t="s">
-        <v>328</v>
+        <v>18</v>
       </c>
       <c r="L109" t="s">
-        <v>329</v>
+        <v>18</v>
       </c>
       <c r="M109" t="s">
         <v>18</v>
@@ -7783,51 +6877,51 @@
         <v>20</v>
       </c>
       <c r="P109" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="Q109" t="s">
         <v>22</v>
       </c>
       <c r="R109" t="s">
-        <v>330</v>
+        <v>190</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B110" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C110" t="s">
-        <v>331</v>
+        <v>18</v>
       </c>
       <c r="D110" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E110" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F110" t="s">
-        <v>332</v>
+        <v>18</v>
       </c>
       <c r="G110" t="s">
-        <v>333</v>
+        <v>18</v>
       </c>
       <c r="H110" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I110" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="J110" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="K110" t="s">
-        <v>334</v>
+        <v>18</v>
       </c>
       <c r="L110" t="s">
-        <v>335</v>
+        <v>18</v>
       </c>
       <c r="M110" t="s">
         <v>18</v>
@@ -7839,51 +6933,51 @@
         <v>20</v>
       </c>
       <c r="P110" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="Q110" t="s">
         <v>22</v>
       </c>
       <c r="R110" t="s">
-        <v>330</v>
+        <v>191</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B111" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C111" t="s">
-        <v>336</v>
+        <v>18</v>
       </c>
       <c r="D111" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E111" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F111" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="G111" t="s">
-        <v>337</v>
+        <v>18</v>
       </c>
       <c r="H111" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I111" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="J111" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="K111" t="s">
-        <v>338</v>
+        <v>18</v>
       </c>
       <c r="L111" t="s">
-        <v>339</v>
+        <v>18</v>
       </c>
       <c r="M111" t="s">
         <v>18</v>
@@ -7895,13 +6989,13 @@
         <v>20</v>
       </c>
       <c r="P111" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="Q111" t="s">
         <v>22</v>
       </c>
       <c r="R111" t="s">
-        <v>330</v>
+        <v>192</v>
       </c>
     </row>
     <row r="112">
@@ -7957,7 +7051,7 @@
         <v>22</v>
       </c>
       <c r="R112" t="s">
-        <v>340</v>
+        <v>193</v>
       </c>
     </row>
     <row r="113">
@@ -8013,7 +7107,7 @@
         <v>22</v>
       </c>
       <c r="R113" t="s">
-        <v>341</v>
+        <v>194</v>
       </c>
     </row>
     <row r="114">
@@ -8069,7 +7163,7 @@
         <v>22</v>
       </c>
       <c r="R114" t="s">
-        <v>342</v>
+        <v>195</v>
       </c>
     </row>
     <row r="115">
@@ -8125,7 +7219,7 @@
         <v>22</v>
       </c>
       <c r="R115" t="s">
-        <v>343</v>
+        <v>196</v>
       </c>
     </row>
     <row r="116">
@@ -8181,7 +7275,7 @@
         <v>22</v>
       </c>
       <c r="R116" t="s">
-        <v>344</v>
+        <v>197</v>
       </c>
     </row>
     <row r="117">
@@ -8231,13 +7325,13 @@
         <v>20</v>
       </c>
       <c r="P117" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="Q117" t="s">
         <v>22</v>
       </c>
       <c r="R117" t="s">
-        <v>345</v>
+        <v>198</v>
       </c>
     </row>
     <row r="118">
@@ -8293,45 +7387,45 @@
         <v>22</v>
       </c>
       <c r="R118" t="s">
-        <v>346</v>
+        <v>199</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B119" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C119" t="s">
-        <v>347</v>
+        <v>18</v>
       </c>
       <c r="D119" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E119" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F119" t="s">
-        <v>269</v>
+        <v>18</v>
       </c>
       <c r="G119" t="s">
-        <v>348</v>
+        <v>18</v>
       </c>
       <c r="H119" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I119" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="J119" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="K119" t="s">
-        <v>349</v>
+        <v>18</v>
       </c>
       <c r="L119" t="s">
-        <v>350</v>
+        <v>18</v>
       </c>
       <c r="M119" t="s">
         <v>18</v>
@@ -8349,45 +7443,45 @@
         <v>22</v>
       </c>
       <c r="R119" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B120" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C120" t="s">
-        <v>352</v>
+        <v>18</v>
       </c>
       <c r="D120" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E120" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F120" t="s">
-        <v>353</v>
+        <v>18</v>
       </c>
       <c r="G120" t="s">
-        <v>354</v>
+        <v>18</v>
       </c>
       <c r="H120" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I120" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="J120" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="K120" t="s">
-        <v>355</v>
+        <v>18</v>
       </c>
       <c r="L120" t="s">
-        <v>356</v>
+        <v>18</v>
       </c>
       <c r="M120" t="s">
         <v>18</v>
@@ -8405,45 +7499,45 @@
         <v>22</v>
       </c>
       <c r="R120" t="s">
-        <v>351</v>
+        <v>201</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B121" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C121" t="s">
-        <v>357</v>
+        <v>18</v>
       </c>
       <c r="D121" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E121" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F121" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="G121" t="s">
-        <v>358</v>
+        <v>18</v>
       </c>
       <c r="H121" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I121" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="J121" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="K121" t="s">
-        <v>359</v>
+        <v>18</v>
       </c>
       <c r="L121" t="s">
-        <v>360</v>
+        <v>18</v>
       </c>
       <c r="M121" t="s">
         <v>18</v>
@@ -8461,45 +7555,45 @@
         <v>22</v>
       </c>
       <c r="R121" t="s">
-        <v>351</v>
+        <v>202</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B122" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C122" t="s">
-        <v>361</v>
+        <v>18</v>
       </c>
       <c r="D122" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E122" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F122" t="s">
-        <v>362</v>
+        <v>18</v>
       </c>
       <c r="G122" t="s">
-        <v>363</v>
+        <v>18</v>
       </c>
       <c r="H122" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I122" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="J122" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="K122" t="s">
-        <v>364</v>
+        <v>18</v>
       </c>
       <c r="L122" t="s">
-        <v>365</v>
+        <v>18</v>
       </c>
       <c r="M122" t="s">
         <v>18</v>
@@ -8517,7 +7611,7 @@
         <v>22</v>
       </c>
       <c r="R122" t="s">
-        <v>351</v>
+        <v>203</v>
       </c>
     </row>
     <row r="123">
@@ -8573,7 +7667,7 @@
         <v>22</v>
       </c>
       <c r="R123" t="s">
-        <v>366</v>
+        <v>204</v>
       </c>
     </row>
     <row r="124">
@@ -8629,7 +7723,7 @@
         <v>22</v>
       </c>
       <c r="R124" t="s">
-        <v>367</v>
+        <v>205</v>
       </c>
     </row>
     <row r="125">
@@ -8685,45 +7779,45 @@
         <v>22</v>
       </c>
       <c r="R125" t="s">
-        <v>368</v>
+        <v>206</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B126" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C126" t="s">
-        <v>369</v>
+        <v>18</v>
       </c>
       <c r="D126" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E126" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F126" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
       <c r="G126" t="s">
-        <v>370</v>
+        <v>18</v>
       </c>
       <c r="H126" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I126" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="J126" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="K126" t="s">
-        <v>371</v>
+        <v>18</v>
       </c>
       <c r="L126" t="s">
-        <v>372</v>
+        <v>18</v>
       </c>
       <c r="M126" t="s">
         <v>18</v>
@@ -8741,45 +7835,45 @@
         <v>22</v>
       </c>
       <c r="R126" t="s">
-        <v>373</v>
+        <v>207</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B127" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C127" t="s">
-        <v>374</v>
+        <v>18</v>
       </c>
       <c r="D127" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E127" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F127" t="s">
-        <v>353</v>
+        <v>18</v>
       </c>
       <c r="G127" t="s">
-        <v>375</v>
+        <v>18</v>
       </c>
       <c r="H127" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I127" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="J127" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="K127" t="s">
-        <v>376</v>
+        <v>18</v>
       </c>
       <c r="L127" t="s">
-        <v>377</v>
+        <v>18</v>
       </c>
       <c r="M127" t="s">
         <v>18</v>
@@ -8797,7 +7891,7 @@
         <v>22</v>
       </c>
       <c r="R127" t="s">
-        <v>373</v>
+        <v>208</v>
       </c>
     </row>
     <row r="128">
@@ -8853,45 +7947,45 @@
         <v>22</v>
       </c>
       <c r="R128" t="s">
-        <v>378</v>
+        <v>209</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B129" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C129" t="s">
-        <v>379</v>
+        <v>18</v>
       </c>
       <c r="D129" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E129" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F129" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="G129" t="s">
-        <v>380</v>
+        <v>18</v>
       </c>
       <c r="H129" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I129" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="J129" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="K129" t="s">
-        <v>381</v>
+        <v>18</v>
       </c>
       <c r="L129" t="s">
-        <v>382</v>
+        <v>18</v>
       </c>
       <c r="M129" t="s">
         <v>18</v>
@@ -8909,45 +8003,45 @@
         <v>22</v>
       </c>
       <c r="R129" t="s">
-        <v>383</v>
+        <v>210</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B130" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C130" t="s">
-        <v>384</v>
+        <v>18</v>
       </c>
       <c r="D130" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E130" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F130" t="s">
-        <v>385</v>
+        <v>18</v>
       </c>
       <c r="G130" t="s">
-        <v>386</v>
+        <v>18</v>
       </c>
       <c r="H130" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I130" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="J130" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="K130" t="s">
-        <v>387</v>
+        <v>18</v>
       </c>
       <c r="L130" t="s">
-        <v>388</v>
+        <v>18</v>
       </c>
       <c r="M130" t="s">
         <v>18</v>
@@ -8965,45 +8059,45 @@
         <v>22</v>
       </c>
       <c r="R130" t="s">
-        <v>383</v>
+        <v>211</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B131" t="s">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="C131" t="s">
-        <v>389</v>
+        <v>18</v>
       </c>
       <c r="D131" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E131" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F131" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="G131" t="s">
-        <v>390</v>
+        <v>18</v>
       </c>
       <c r="H131" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I131" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="J131" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="K131" t="s">
-        <v>391</v>
+        <v>18</v>
       </c>
       <c r="L131" t="s">
-        <v>392</v>
+        <v>18</v>
       </c>
       <c r="M131" t="s">
         <v>18</v>
@@ -9021,7 +8115,7 @@
         <v>22</v>
       </c>
       <c r="R131" t="s">
-        <v>393</v>
+        <v>212</v>
       </c>
     </row>
     <row r="132">
@@ -9077,7 +8171,7 @@
         <v>22</v>
       </c>
       <c r="R132" t="s">
-        <v>394</v>
+        <v>213</v>
       </c>
     </row>
     <row r="133">
@@ -9133,7 +8227,7 @@
         <v>22</v>
       </c>
       <c r="R133" t="s">
-        <v>395</v>
+        <v>214</v>
       </c>
     </row>
     <row r="134">
@@ -9189,7 +8283,7 @@
         <v>22</v>
       </c>
       <c r="R134" t="s">
-        <v>396</v>
+        <v>215</v>
       </c>
     </row>
     <row r="135">
@@ -9245,45 +8339,45 @@
         <v>22</v>
       </c>
       <c r="R135" t="s">
-        <v>397</v>
+        <v>216</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B136" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C136" t="s">
-        <v>398</v>
+        <v>18</v>
       </c>
       <c r="D136" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E136" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F136" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="G136" t="s">
-        <v>399</v>
+        <v>18</v>
       </c>
       <c r="H136" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I136" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="J136" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="K136" t="s">
-        <v>400</v>
+        <v>18</v>
       </c>
       <c r="L136" t="s">
-        <v>401</v>
+        <v>18</v>
       </c>
       <c r="M136" t="s">
         <v>18</v>
@@ -9301,7 +8395,7 @@
         <v>22</v>
       </c>
       <c r="R136" t="s">
-        <v>402</v>
+        <v>217</v>
       </c>
     </row>
     <row r="137">
@@ -9357,7 +8451,7 @@
         <v>22</v>
       </c>
       <c r="R137" t="s">
-        <v>403</v>
+        <v>218</v>
       </c>
     </row>
     <row r="138">
@@ -9413,45 +8507,45 @@
         <v>22</v>
       </c>
       <c r="R138" t="s">
-        <v>404</v>
+        <v>219</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B139" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C139" t="s">
-        <v>405</v>
+        <v>18</v>
       </c>
       <c r="D139" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E139" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F139" t="s">
-        <v>332</v>
+        <v>18</v>
       </c>
       <c r="G139" t="s">
-        <v>406</v>
+        <v>18</v>
       </c>
       <c r="H139" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I139" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="J139" t="s">
-        <v>407</v>
+        <v>18</v>
       </c>
       <c r="K139" t="s">
-        <v>408</v>
+        <v>18</v>
       </c>
       <c r="L139" t="s">
-        <v>409</v>
+        <v>18</v>
       </c>
       <c r="M139" t="s">
         <v>18</v>
@@ -9469,45 +8563,45 @@
         <v>22</v>
       </c>
       <c r="R139" t="s">
-        <v>410</v>
+        <v>220</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B140" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C140" t="s">
-        <v>411</v>
+        <v>18</v>
       </c>
       <c r="D140" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E140" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F140" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="G140" t="s">
-        <v>412</v>
+        <v>18</v>
       </c>
       <c r="H140" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I140" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="J140" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="K140" t="s">
-        <v>413</v>
+        <v>18</v>
       </c>
       <c r="L140" t="s">
-        <v>414</v>
+        <v>18</v>
       </c>
       <c r="M140" t="s">
         <v>18</v>
@@ -9525,45 +8619,45 @@
         <v>22</v>
       </c>
       <c r="R140" t="s">
-        <v>410</v>
+        <v>221</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B141" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C141" t="s">
-        <v>415</v>
+        <v>18</v>
       </c>
       <c r="D141" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E141" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F141" t="s">
-        <v>353</v>
+        <v>18</v>
       </c>
       <c r="G141" t="s">
-        <v>416</v>
+        <v>18</v>
       </c>
       <c r="H141" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I141" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="J141" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="K141" t="s">
-        <v>417</v>
+        <v>18</v>
       </c>
       <c r="L141" t="s">
-        <v>418</v>
+        <v>18</v>
       </c>
       <c r="M141" t="s">
         <v>18</v>
@@ -9581,7 +8675,7 @@
         <v>22</v>
       </c>
       <c r="R141" t="s">
-        <v>410</v>
+        <v>222</v>
       </c>
     </row>
     <row r="142">
@@ -9637,7 +8731,7 @@
         <v>22</v>
       </c>
       <c r="R142" t="s">
-        <v>419</v>
+        <v>223</v>
       </c>
     </row>
     <row r="143">
@@ -9693,45 +8787,45 @@
         <v>22</v>
       </c>
       <c r="R143" t="s">
-        <v>420</v>
+        <v>224</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B144" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C144" t="s">
-        <v>18</v>
+        <v>225</v>
       </c>
       <c r="D144" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E144" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F144" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="G144" t="s">
-        <v>18</v>
+        <v>226</v>
       </c>
       <c r="H144" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I144" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="J144" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="K144" t="s">
-        <v>18</v>
+        <v>227</v>
       </c>
       <c r="L144" t="s">
-        <v>18</v>
+        <v>228</v>
       </c>
       <c r="M144" t="s">
         <v>18</v>
@@ -9749,7 +8843,7 @@
         <v>22</v>
       </c>
       <c r="R144" t="s">
-        <v>421</v>
+        <v>229</v>
       </c>
     </row>
     <row r="145">
@@ -9805,45 +8899,45 @@
         <v>22</v>
       </c>
       <c r="R145" t="s">
-        <v>422</v>
+        <v>230</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B146" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C146" t="s">
-        <v>423</v>
+        <v>18</v>
       </c>
       <c r="D146" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E146" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F146" t="s">
-        <v>307</v>
+        <v>18</v>
       </c>
       <c r="G146" t="s">
-        <v>424</v>
+        <v>18</v>
       </c>
       <c r="H146" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I146" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="J146" t="s">
-        <v>425</v>
+        <v>18</v>
       </c>
       <c r="K146" t="s">
-        <v>426</v>
+        <v>18</v>
       </c>
       <c r="L146" t="s">
-        <v>427</v>
+        <v>18</v>
       </c>
       <c r="M146" t="s">
         <v>18</v>
@@ -9855,51 +8949,51 @@
         <v>20</v>
       </c>
       <c r="P146" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="Q146" t="s">
         <v>22</v>
       </c>
       <c r="R146" t="s">
-        <v>428</v>
+        <v>231</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B147" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C147" t="s">
-        <v>429</v>
+        <v>18</v>
       </c>
       <c r="D147" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E147" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F147" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="G147" t="s">
-        <v>430</v>
+        <v>18</v>
       </c>
       <c r="H147" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I147" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J147" t="s">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="K147" t="s">
-        <v>431</v>
+        <v>18</v>
       </c>
       <c r="L147" t="s">
-        <v>432</v>
+        <v>18</v>
       </c>
       <c r="M147" t="s">
         <v>18</v>
@@ -9917,7 +9011,7 @@
         <v>22</v>
       </c>
       <c r="R147" t="s">
-        <v>433</v>
+        <v>232</v>
       </c>
     </row>
     <row r="148">
@@ -9973,7 +9067,7 @@
         <v>22</v>
       </c>
       <c r="R148" t="s">
-        <v>434</v>
+        <v>233</v>
       </c>
     </row>
     <row r="149">
@@ -10029,7 +9123,7 @@
         <v>22</v>
       </c>
       <c r="R149" t="s">
-        <v>435</v>
+        <v>234</v>
       </c>
     </row>
     <row r="150">
@@ -10085,45 +9179,45 @@
         <v>22</v>
       </c>
       <c r="R150" t="s">
-        <v>436</v>
+        <v>235</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B151" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C151" t="s">
-        <v>437</v>
+        <v>18</v>
       </c>
       <c r="D151" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E151" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F151" t="s">
-        <v>241</v>
+        <v>18</v>
       </c>
       <c r="G151" t="s">
-        <v>438</v>
+        <v>18</v>
       </c>
       <c r="H151" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I151" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="J151" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="K151" t="s">
-        <v>439</v>
+        <v>18</v>
       </c>
       <c r="L151" t="s">
-        <v>440</v>
+        <v>18</v>
       </c>
       <c r="M151" t="s">
         <v>18</v>
@@ -10141,7 +9235,7 @@
         <v>22</v>
       </c>
       <c r="R151" t="s">
-        <v>441</v>
+        <v>236</v>
       </c>
     </row>
     <row r="152">
@@ -10197,7 +9291,7 @@
         <v>22</v>
       </c>
       <c r="R152" t="s">
-        <v>442</v>
+        <v>237</v>
       </c>
     </row>
     <row r="153">
@@ -10253,7 +9347,7 @@
         <v>22</v>
       </c>
       <c r="R153" t="s">
-        <v>443</v>
+        <v>238</v>
       </c>
     </row>
     <row r="154">
@@ -10303,1973 +9397,13 @@
         <v>20</v>
       </c>
       <c r="P154" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="Q154" t="s">
         <v>22</v>
       </c>
       <c r="R154" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s">
-        <v>18</v>
-      </c>
-      <c r="B155" t="s">
-        <v>18</v>
-      </c>
-      <c r="C155" t="s">
-        <v>18</v>
-      </c>
-      <c r="D155" t="s">
-        <v>18</v>
-      </c>
-      <c r="E155" t="s">
-        <v>18</v>
-      </c>
-      <c r="F155" t="s">
-        <v>18</v>
-      </c>
-      <c r="G155" t="s">
-        <v>18</v>
-      </c>
-      <c r="H155" t="s">
-        <v>18</v>
-      </c>
-      <c r="I155" t="s">
-        <v>18</v>
-      </c>
-      <c r="J155" t="s">
-        <v>18</v>
-      </c>
-      <c r="K155" t="s">
-        <v>18</v>
-      </c>
-      <c r="L155" t="s">
-        <v>18</v>
-      </c>
-      <c r="M155" t="s">
-        <v>18</v>
-      </c>
-      <c r="N155" t="s">
-        <v>19</v>
-      </c>
-      <c r="O155" t="s">
-        <v>20</v>
-      </c>
-      <c r="P155" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q155" t="s">
-        <v>22</v>
-      </c>
-      <c r="R155" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s">
-        <v>25</v>
-      </c>
-      <c r="B156" t="s">
-        <v>39</v>
-      </c>
-      <c r="C156" t="s">
-        <v>446</v>
-      </c>
-      <c r="D156" t="s">
-        <v>28</v>
-      </c>
-      <c r="E156" t="s">
-        <v>29</v>
-      </c>
-      <c r="F156" t="s">
-        <v>362</v>
-      </c>
-      <c r="G156" t="s">
-        <v>447</v>
-      </c>
-      <c r="H156" t="s">
-        <v>29</v>
-      </c>
-      <c r="I156" t="s">
-        <v>43</v>
-      </c>
-      <c r="J156" t="s">
-        <v>28</v>
-      </c>
-      <c r="K156" t="s">
-        <v>448</v>
-      </c>
-      <c r="L156" t="s">
-        <v>449</v>
-      </c>
-      <c r="M156" t="s">
-        <v>18</v>
-      </c>
-      <c r="N156" t="s">
-        <v>19</v>
-      </c>
-      <c r="O156" t="s">
-        <v>20</v>
-      </c>
-      <c r="P156" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q156" t="s">
-        <v>22</v>
-      </c>
-      <c r="R156" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s">
-        <v>25</v>
-      </c>
-      <c r="B157" t="s">
-        <v>26</v>
-      </c>
-      <c r="C157" t="s">
-        <v>451</v>
-      </c>
-      <c r="D157" t="s">
-        <v>28</v>
-      </c>
-      <c r="E157" t="s">
-        <v>29</v>
-      </c>
-      <c r="F157" t="s">
-        <v>171</v>
-      </c>
-      <c r="G157" t="s">
-        <v>452</v>
-      </c>
-      <c r="H157" t="s">
-        <v>29</v>
-      </c>
-      <c r="I157" t="s">
-        <v>69</v>
-      </c>
-      <c r="J157" t="s">
-        <v>58</v>
-      </c>
-      <c r="K157" t="s">
-        <v>453</v>
-      </c>
-      <c r="L157" t="s">
-        <v>454</v>
-      </c>
-      <c r="M157" t="s">
-        <v>18</v>
-      </c>
-      <c r="N157" t="s">
-        <v>19</v>
-      </c>
-      <c r="O157" t="s">
-        <v>20</v>
-      </c>
-      <c r="P157" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q157" t="s">
-        <v>22</v>
-      </c>
-      <c r="R157" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s">
-        <v>25</v>
-      </c>
-      <c r="B158" t="s">
-        <v>26</v>
-      </c>
-      <c r="C158" t="s">
-        <v>455</v>
-      </c>
-      <c r="D158" t="s">
-        <v>28</v>
-      </c>
-      <c r="E158" t="s">
-        <v>29</v>
-      </c>
-      <c r="F158" t="s">
-        <v>362</v>
-      </c>
-      <c r="G158" t="s">
-        <v>456</v>
-      </c>
-      <c r="H158" t="s">
-        <v>29</v>
-      </c>
-      <c r="I158" t="s">
-        <v>32</v>
-      </c>
-      <c r="J158" t="s">
-        <v>58</v>
-      </c>
-      <c r="K158" t="s">
-        <v>457</v>
-      </c>
-      <c r="L158" t="s">
-        <v>458</v>
-      </c>
-      <c r="M158" t="s">
-        <v>18</v>
-      </c>
-      <c r="N158" t="s">
-        <v>19</v>
-      </c>
-      <c r="O158" t="s">
-        <v>20</v>
-      </c>
-      <c r="P158" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q158" t="s">
-        <v>22</v>
-      </c>
-      <c r="R158" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s">
-        <v>25</v>
-      </c>
-      <c r="B159" t="s">
-        <v>26</v>
-      </c>
-      <c r="C159" t="s">
-        <v>459</v>
-      </c>
-      <c r="D159" t="s">
-        <v>28</v>
-      </c>
-      <c r="E159" t="s">
-        <v>29</v>
-      </c>
-      <c r="F159" t="s">
-        <v>101</v>
-      </c>
-      <c r="G159" t="s">
-        <v>460</v>
-      </c>
-      <c r="H159" t="s">
-        <v>29</v>
-      </c>
-      <c r="I159" t="s">
-        <v>32</v>
-      </c>
-      <c r="J159" t="s">
-        <v>28</v>
-      </c>
-      <c r="K159" t="s">
-        <v>461</v>
-      </c>
-      <c r="L159" t="s">
-        <v>462</v>
-      </c>
-      <c r="M159" t="s">
-        <v>18</v>
-      </c>
-      <c r="N159" t="s">
-        <v>19</v>
-      </c>
-      <c r="O159" t="s">
-        <v>20</v>
-      </c>
-      <c r="P159" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q159" t="s">
-        <v>22</v>
-      </c>
-      <c r="R159" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s">
-        <v>18</v>
-      </c>
-      <c r="B160" t="s">
-        <v>18</v>
-      </c>
-      <c r="C160" t="s">
-        <v>18</v>
-      </c>
-      <c r="D160" t="s">
-        <v>18</v>
-      </c>
-      <c r="E160" t="s">
-        <v>18</v>
-      </c>
-      <c r="F160" t="s">
-        <v>18</v>
-      </c>
-      <c r="G160" t="s">
-        <v>18</v>
-      </c>
-      <c r="H160" t="s">
-        <v>18</v>
-      </c>
-      <c r="I160" t="s">
-        <v>18</v>
-      </c>
-      <c r="J160" t="s">
-        <v>18</v>
-      </c>
-      <c r="K160" t="s">
-        <v>18</v>
-      </c>
-      <c r="L160" t="s">
-        <v>18</v>
-      </c>
-      <c r="M160" t="s">
-        <v>18</v>
-      </c>
-      <c r="N160" t="s">
-        <v>19</v>
-      </c>
-      <c r="O160" t="s">
-        <v>20</v>
-      </c>
-      <c r="P160" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q160" t="s">
-        <v>22</v>
-      </c>
-      <c r="R160" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s">
-        <v>25</v>
-      </c>
-      <c r="B161" t="s">
-        <v>26</v>
-      </c>
-      <c r="C161" t="s">
-        <v>465</v>
-      </c>
-      <c r="D161" t="s">
-        <v>28</v>
-      </c>
-      <c r="E161" t="s">
-        <v>29</v>
-      </c>
-      <c r="F161" t="s">
-        <v>241</v>
-      </c>
-      <c r="G161" t="s">
-        <v>466</v>
-      </c>
-      <c r="H161" t="s">
-        <v>29</v>
-      </c>
-      <c r="I161" t="s">
-        <v>113</v>
-      </c>
-      <c r="J161" t="s">
-        <v>58</v>
-      </c>
-      <c r="K161" t="s">
-        <v>467</v>
-      </c>
-      <c r="L161" t="s">
-        <v>468</v>
-      </c>
-      <c r="M161" t="s">
-        <v>18</v>
-      </c>
-      <c r="N161" t="s">
-        <v>19</v>
-      </c>
-      <c r="O161" t="s">
-        <v>20</v>
-      </c>
-      <c r="P161" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q161" t="s">
-        <v>22</v>
-      </c>
-      <c r="R161" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
-        <v>18</v>
-      </c>
-      <c r="B162" t="s">
-        <v>18</v>
-      </c>
-      <c r="C162" t="s">
-        <v>18</v>
-      </c>
-      <c r="D162" t="s">
-        <v>18</v>
-      </c>
-      <c r="E162" t="s">
-        <v>18</v>
-      </c>
-      <c r="F162" t="s">
-        <v>18</v>
-      </c>
-      <c r="G162" t="s">
-        <v>18</v>
-      </c>
-      <c r="H162" t="s">
-        <v>18</v>
-      </c>
-      <c r="I162" t="s">
-        <v>18</v>
-      </c>
-      <c r="J162" t="s">
-        <v>18</v>
-      </c>
-      <c r="K162" t="s">
-        <v>18</v>
-      </c>
-      <c r="L162" t="s">
-        <v>18</v>
-      </c>
-      <c r="M162" t="s">
-        <v>18</v>
-      </c>
-      <c r="N162" t="s">
-        <v>19</v>
-      </c>
-      <c r="O162" t="s">
-        <v>20</v>
-      </c>
-      <c r="P162" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q162" t="s">
-        <v>22</v>
-      </c>
-      <c r="R162" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s">
-        <v>25</v>
-      </c>
-      <c r="B163" t="s">
-        <v>26</v>
-      </c>
-      <c r="C163" t="s">
-        <v>471</v>
-      </c>
-      <c r="D163" t="s">
-        <v>28</v>
-      </c>
-      <c r="E163" t="s">
-        <v>29</v>
-      </c>
-      <c r="F163" t="s">
-        <v>472</v>
-      </c>
-      <c r="G163" t="s">
-        <v>473</v>
-      </c>
-      <c r="H163" t="s">
-        <v>29</v>
-      </c>
-      <c r="I163" t="s">
-        <v>43</v>
-      </c>
-      <c r="J163" t="s">
-        <v>82</v>
-      </c>
-      <c r="K163" t="s">
-        <v>474</v>
-      </c>
-      <c r="L163" t="s">
-        <v>475</v>
-      </c>
-      <c r="M163" t="s">
-        <v>18</v>
-      </c>
-      <c r="N163" t="s">
-        <v>19</v>
-      </c>
-      <c r="O163" t="s">
-        <v>20</v>
-      </c>
-      <c r="P163" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q163" t="s">
-        <v>22</v>
-      </c>
-      <c r="R163" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s">
-        <v>25</v>
-      </c>
-      <c r="B164" t="s">
-        <v>26</v>
-      </c>
-      <c r="C164" t="s">
-        <v>477</v>
-      </c>
-      <c r="D164" t="s">
-        <v>28</v>
-      </c>
-      <c r="E164" t="s">
-        <v>29</v>
-      </c>
-      <c r="F164" t="s">
-        <v>87</v>
-      </c>
-      <c r="G164" t="s">
-        <v>478</v>
-      </c>
-      <c r="H164" t="s">
-        <v>29</v>
-      </c>
-      <c r="I164" t="s">
-        <v>43</v>
-      </c>
-      <c r="J164" t="s">
-        <v>58</v>
-      </c>
-      <c r="K164" t="s">
-        <v>479</v>
-      </c>
-      <c r="L164" t="s">
-        <v>480</v>
-      </c>
-      <c r="M164" t="s">
-        <v>18</v>
-      </c>
-      <c r="N164" t="s">
-        <v>19</v>
-      </c>
-      <c r="O164" t="s">
-        <v>20</v>
-      </c>
-      <c r="P164" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q164" t="s">
-        <v>22</v>
-      </c>
-      <c r="R164" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s">
-        <v>25</v>
-      </c>
-      <c r="B165" t="s">
-        <v>26</v>
-      </c>
-      <c r="C165" t="s">
-        <v>481</v>
-      </c>
-      <c r="D165" t="s">
-        <v>28</v>
-      </c>
-      <c r="E165" t="s">
-        <v>29</v>
-      </c>
-      <c r="F165" t="s">
-        <v>482</v>
-      </c>
-      <c r="G165" t="s">
-        <v>483</v>
-      </c>
-      <c r="H165" t="s">
-        <v>29</v>
-      </c>
-      <c r="I165" t="s">
-        <v>32</v>
-      </c>
-      <c r="J165" t="s">
-        <v>58</v>
-      </c>
-      <c r="K165" t="s">
-        <v>484</v>
-      </c>
-      <c r="L165" t="s">
-        <v>485</v>
-      </c>
-      <c r="M165" t="s">
-        <v>18</v>
-      </c>
-      <c r="N165" t="s">
-        <v>19</v>
-      </c>
-      <c r="O165" t="s">
-        <v>20</v>
-      </c>
-      <c r="P165" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q165" t="s">
-        <v>22</v>
-      </c>
-      <c r="R165" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s">
-        <v>18</v>
-      </c>
-      <c r="B166" t="s">
-        <v>18</v>
-      </c>
-      <c r="C166" t="s">
-        <v>18</v>
-      </c>
-      <c r="D166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E166" t="s">
-        <v>18</v>
-      </c>
-      <c r="F166" t="s">
-        <v>18</v>
-      </c>
-      <c r="G166" t="s">
-        <v>18</v>
-      </c>
-      <c r="H166" t="s">
-        <v>18</v>
-      </c>
-      <c r="I166" t="s">
-        <v>18</v>
-      </c>
-      <c r="J166" t="s">
-        <v>18</v>
-      </c>
-      <c r="K166" t="s">
-        <v>18</v>
-      </c>
-      <c r="L166" t="s">
-        <v>18</v>
-      </c>
-      <c r="M166" t="s">
-        <v>18</v>
-      </c>
-      <c r="N166" t="s">
-        <v>19</v>
-      </c>
-      <c r="O166" t="s">
-        <v>20</v>
-      </c>
-      <c r="P166" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q166" t="s">
-        <v>22</v>
-      </c>
-      <c r="R166" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s">
-        <v>18</v>
-      </c>
-      <c r="B167" t="s">
-        <v>18</v>
-      </c>
-      <c r="C167" t="s">
-        <v>18</v>
-      </c>
-      <c r="D167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E167" t="s">
-        <v>18</v>
-      </c>
-      <c r="F167" t="s">
-        <v>18</v>
-      </c>
-      <c r="G167" t="s">
-        <v>18</v>
-      </c>
-      <c r="H167" t="s">
-        <v>18</v>
-      </c>
-      <c r="I167" t="s">
-        <v>18</v>
-      </c>
-      <c r="J167" t="s">
-        <v>18</v>
-      </c>
-      <c r="K167" t="s">
-        <v>18</v>
-      </c>
-      <c r="L167" t="s">
-        <v>18</v>
-      </c>
-      <c r="M167" t="s">
-        <v>18</v>
-      </c>
-      <c r="N167" t="s">
-        <v>19</v>
-      </c>
-      <c r="O167" t="s">
-        <v>20</v>
-      </c>
-      <c r="P167" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q167" t="s">
-        <v>22</v>
-      </c>
-      <c r="R167" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s">
-        <v>18</v>
-      </c>
-      <c r="B168" t="s">
-        <v>18</v>
-      </c>
-      <c r="C168" t="s">
-        <v>18</v>
-      </c>
-      <c r="D168" t="s">
-        <v>18</v>
-      </c>
-      <c r="E168" t="s">
-        <v>18</v>
-      </c>
-      <c r="F168" t="s">
-        <v>18</v>
-      </c>
-      <c r="G168" t="s">
-        <v>18</v>
-      </c>
-      <c r="H168" t="s">
-        <v>18</v>
-      </c>
-      <c r="I168" t="s">
-        <v>18</v>
-      </c>
-      <c r="J168" t="s">
-        <v>18</v>
-      </c>
-      <c r="K168" t="s">
-        <v>18</v>
-      </c>
-      <c r="L168" t="s">
-        <v>18</v>
-      </c>
-      <c r="M168" t="s">
-        <v>18</v>
-      </c>
-      <c r="N168" t="s">
-        <v>19</v>
-      </c>
-      <c r="O168" t="s">
-        <v>20</v>
-      </c>
-      <c r="P168" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q168" t="s">
-        <v>22</v>
-      </c>
-      <c r="R168" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s">
-        <v>18</v>
-      </c>
-      <c r="B169" t="s">
-        <v>18</v>
-      </c>
-      <c r="C169" t="s">
-        <v>18</v>
-      </c>
-      <c r="D169" t="s">
-        <v>18</v>
-      </c>
-      <c r="E169" t="s">
-        <v>18</v>
-      </c>
-      <c r="F169" t="s">
-        <v>18</v>
-      </c>
-      <c r="G169" t="s">
-        <v>18</v>
-      </c>
-      <c r="H169" t="s">
-        <v>18</v>
-      </c>
-      <c r="I169" t="s">
-        <v>18</v>
-      </c>
-      <c r="J169" t="s">
-        <v>18</v>
-      </c>
-      <c r="K169" t="s">
-        <v>18</v>
-      </c>
-      <c r="L169" t="s">
-        <v>18</v>
-      </c>
-      <c r="M169" t="s">
-        <v>18</v>
-      </c>
-      <c r="N169" t="s">
-        <v>19</v>
-      </c>
-      <c r="O169" t="s">
-        <v>20</v>
-      </c>
-      <c r="P169" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q169" t="s">
-        <v>22</v>
-      </c>
-      <c r="R169" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s">
-        <v>25</v>
-      </c>
-      <c r="B170" t="s">
-        <v>26</v>
-      </c>
-      <c r="C170" t="s">
-        <v>490</v>
-      </c>
-      <c r="D170" t="s">
-        <v>28</v>
-      </c>
-      <c r="E170" t="s">
-        <v>29</v>
-      </c>
-      <c r="F170" t="s">
-        <v>131</v>
-      </c>
-      <c r="G170" t="s">
-        <v>491</v>
-      </c>
-      <c r="H170" t="s">
-        <v>29</v>
-      </c>
-      <c r="I170" t="s">
-        <v>43</v>
-      </c>
-      <c r="J170" t="s">
-        <v>58</v>
-      </c>
-      <c r="K170" t="s">
-        <v>492</v>
-      </c>
-      <c r="L170" t="s">
-        <v>493</v>
-      </c>
-      <c r="M170" t="s">
-        <v>18</v>
-      </c>
-      <c r="N170" t="s">
-        <v>19</v>
-      </c>
-      <c r="O170" t="s">
-        <v>20</v>
-      </c>
-      <c r="P170" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q170" t="s">
-        <v>22</v>
-      </c>
-      <c r="R170" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s">
-        <v>18</v>
-      </c>
-      <c r="B171" t="s">
-        <v>18</v>
-      </c>
-      <c r="C171" t="s">
-        <v>18</v>
-      </c>
-      <c r="D171" t="s">
-        <v>18</v>
-      </c>
-      <c r="E171" t="s">
-        <v>18</v>
-      </c>
-      <c r="F171" t="s">
-        <v>18</v>
-      </c>
-      <c r="G171" t="s">
-        <v>18</v>
-      </c>
-      <c r="H171" t="s">
-        <v>18</v>
-      </c>
-      <c r="I171" t="s">
-        <v>18</v>
-      </c>
-      <c r="J171" t="s">
-        <v>18</v>
-      </c>
-      <c r="K171" t="s">
-        <v>18</v>
-      </c>
-      <c r="L171" t="s">
-        <v>18</v>
-      </c>
-      <c r="M171" t="s">
-        <v>18</v>
-      </c>
-      <c r="N171" t="s">
-        <v>19</v>
-      </c>
-      <c r="O171" t="s">
-        <v>20</v>
-      </c>
-      <c r="P171" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q171" t="s">
-        <v>22</v>
-      </c>
-      <c r="R171" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s">
-        <v>18</v>
-      </c>
-      <c r="B172" t="s">
-        <v>18</v>
-      </c>
-      <c r="C172" t="s">
-        <v>18</v>
-      </c>
-      <c r="D172" t="s">
-        <v>18</v>
-      </c>
-      <c r="E172" t="s">
-        <v>18</v>
-      </c>
-      <c r="F172" t="s">
-        <v>18</v>
-      </c>
-      <c r="G172" t="s">
-        <v>18</v>
-      </c>
-      <c r="H172" t="s">
-        <v>18</v>
-      </c>
-      <c r="I172" t="s">
-        <v>18</v>
-      </c>
-      <c r="J172" t="s">
-        <v>18</v>
-      </c>
-      <c r="K172" t="s">
-        <v>18</v>
-      </c>
-      <c r="L172" t="s">
-        <v>18</v>
-      </c>
-      <c r="M172" t="s">
-        <v>18</v>
-      </c>
-      <c r="N172" t="s">
-        <v>19</v>
-      </c>
-      <c r="O172" t="s">
-        <v>20</v>
-      </c>
-      <c r="P172" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q172" t="s">
-        <v>22</v>
-      </c>
-      <c r="R172" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s">
-        <v>18</v>
-      </c>
-      <c r="B173" t="s">
-        <v>18</v>
-      </c>
-      <c r="C173" t="s">
-        <v>18</v>
-      </c>
-      <c r="D173" t="s">
-        <v>18</v>
-      </c>
-      <c r="E173" t="s">
-        <v>18</v>
-      </c>
-      <c r="F173" t="s">
-        <v>18</v>
-      </c>
-      <c r="G173" t="s">
-        <v>18</v>
-      </c>
-      <c r="H173" t="s">
-        <v>18</v>
-      </c>
-      <c r="I173" t="s">
-        <v>18</v>
-      </c>
-      <c r="J173" t="s">
-        <v>18</v>
-      </c>
-      <c r="K173" t="s">
-        <v>18</v>
-      </c>
-      <c r="L173" t="s">
-        <v>18</v>
-      </c>
-      <c r="M173" t="s">
-        <v>18</v>
-      </c>
-      <c r="N173" t="s">
-        <v>19</v>
-      </c>
-      <c r="O173" t="s">
-        <v>20</v>
-      </c>
-      <c r="P173" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q173" t="s">
-        <v>22</v>
-      </c>
-      <c r="R173" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s">
-        <v>18</v>
-      </c>
-      <c r="B174" t="s">
-        <v>18</v>
-      </c>
-      <c r="C174" t="s">
-        <v>18</v>
-      </c>
-      <c r="D174" t="s">
-        <v>18</v>
-      </c>
-      <c r="E174" t="s">
-        <v>18</v>
-      </c>
-      <c r="F174" t="s">
-        <v>18</v>
-      </c>
-      <c r="G174" t="s">
-        <v>18</v>
-      </c>
-      <c r="H174" t="s">
-        <v>18</v>
-      </c>
-      <c r="I174" t="s">
-        <v>18</v>
-      </c>
-      <c r="J174" t="s">
-        <v>18</v>
-      </c>
-      <c r="K174" t="s">
-        <v>18</v>
-      </c>
-      <c r="L174" t="s">
-        <v>18</v>
-      </c>
-      <c r="M174" t="s">
-        <v>18</v>
-      </c>
-      <c r="N174" t="s">
-        <v>19</v>
-      </c>
-      <c r="O174" t="s">
-        <v>20</v>
-      </c>
-      <c r="P174" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q174" t="s">
-        <v>22</v>
-      </c>
-      <c r="R174" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s">
-        <v>18</v>
-      </c>
-      <c r="B175" t="s">
-        <v>18</v>
-      </c>
-      <c r="C175" t="s">
-        <v>18</v>
-      </c>
-      <c r="D175" t="s">
-        <v>18</v>
-      </c>
-      <c r="E175" t="s">
-        <v>18</v>
-      </c>
-      <c r="F175" t="s">
-        <v>18</v>
-      </c>
-      <c r="G175" t="s">
-        <v>18</v>
-      </c>
-      <c r="H175" t="s">
-        <v>18</v>
-      </c>
-      <c r="I175" t="s">
-        <v>18</v>
-      </c>
-      <c r="J175" t="s">
-        <v>18</v>
-      </c>
-      <c r="K175" t="s">
-        <v>18</v>
-      </c>
-      <c r="L175" t="s">
-        <v>18</v>
-      </c>
-      <c r="M175" t="s">
-        <v>18</v>
-      </c>
-      <c r="N175" t="s">
-        <v>19</v>
-      </c>
-      <c r="O175" t="s">
-        <v>20</v>
-      </c>
-      <c r="P175" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q175" t="s">
-        <v>22</v>
-      </c>
-      <c r="R175" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s">
-        <v>25</v>
-      </c>
-      <c r="B176" t="s">
-        <v>39</v>
-      </c>
-      <c r="C176" t="s">
-        <v>500</v>
-      </c>
-      <c r="D176" t="s">
-        <v>28</v>
-      </c>
-      <c r="E176" t="s">
-        <v>29</v>
-      </c>
-      <c r="F176" t="s">
-        <v>131</v>
-      </c>
-      <c r="G176" t="s">
-        <v>501</v>
-      </c>
-      <c r="H176" t="s">
-        <v>29</v>
-      </c>
-      <c r="I176" t="s">
-        <v>139</v>
-      </c>
-      <c r="J176" t="s">
-        <v>44</v>
-      </c>
-      <c r="K176" t="s">
-        <v>502</v>
-      </c>
-      <c r="L176" t="s">
-        <v>503</v>
-      </c>
-      <c r="M176" t="s">
-        <v>18</v>
-      </c>
-      <c r="N176" t="s">
-        <v>19</v>
-      </c>
-      <c r="O176" t="s">
-        <v>20</v>
-      </c>
-      <c r="P176" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q176" t="s">
-        <v>22</v>
-      </c>
-      <c r="R176" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s">
-        <v>25</v>
-      </c>
-      <c r="B177" t="s">
-        <v>26</v>
-      </c>
-      <c r="C177" t="s">
-        <v>505</v>
-      </c>
-      <c r="D177" t="s">
-        <v>28</v>
-      </c>
-      <c r="E177" t="s">
-        <v>29</v>
-      </c>
-      <c r="F177" t="s">
-        <v>353</v>
-      </c>
-      <c r="G177" t="s">
-        <v>506</v>
-      </c>
-      <c r="H177" t="s">
-        <v>29</v>
-      </c>
-      <c r="I177" t="s">
-        <v>32</v>
-      </c>
-      <c r="J177" t="s">
-        <v>58</v>
-      </c>
-      <c r="K177" t="s">
-        <v>507</v>
-      </c>
-      <c r="L177" t="s">
-        <v>508</v>
-      </c>
-      <c r="M177" t="s">
-        <v>18</v>
-      </c>
-      <c r="N177" t="s">
-        <v>19</v>
-      </c>
-      <c r="O177" t="s">
-        <v>20</v>
-      </c>
-      <c r="P177" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q177" t="s">
-        <v>22</v>
-      </c>
-      <c r="R177" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s">
-        <v>25</v>
-      </c>
-      <c r="B178" t="s">
-        <v>26</v>
-      </c>
-      <c r="C178" t="s">
-        <v>509</v>
-      </c>
-      <c r="D178" t="s">
-        <v>28</v>
-      </c>
-      <c r="E178" t="s">
-        <v>29</v>
-      </c>
-      <c r="F178" t="s">
-        <v>510</v>
-      </c>
-      <c r="G178" t="s">
-        <v>511</v>
-      </c>
-      <c r="H178" t="s">
-        <v>29</v>
-      </c>
-      <c r="I178" t="s">
-        <v>57</v>
-      </c>
-      <c r="J178" t="s">
-        <v>58</v>
-      </c>
-      <c r="K178" t="s">
-        <v>512</v>
-      </c>
-      <c r="L178" t="s">
-        <v>513</v>
-      </c>
-      <c r="M178" t="s">
-        <v>18</v>
-      </c>
-      <c r="N178" t="s">
-        <v>19</v>
-      </c>
-      <c r="O178" t="s">
-        <v>20</v>
-      </c>
-      <c r="P178" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q178" t="s">
-        <v>22</v>
-      </c>
-      <c r="R178" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s">
-        <v>18</v>
-      </c>
-      <c r="B179" t="s">
-        <v>18</v>
-      </c>
-      <c r="C179" t="s">
-        <v>18</v>
-      </c>
-      <c r="D179" t="s">
-        <v>18</v>
-      </c>
-      <c r="E179" t="s">
-        <v>18</v>
-      </c>
-      <c r="F179" t="s">
-        <v>18</v>
-      </c>
-      <c r="G179" t="s">
-        <v>18</v>
-      </c>
-      <c r="H179" t="s">
-        <v>18</v>
-      </c>
-      <c r="I179" t="s">
-        <v>18</v>
-      </c>
-      <c r="J179" t="s">
-        <v>18</v>
-      </c>
-      <c r="K179" t="s">
-        <v>18</v>
-      </c>
-      <c r="L179" t="s">
-        <v>18</v>
-      </c>
-      <c r="M179" t="s">
-        <v>18</v>
-      </c>
-      <c r="N179" t="s">
-        <v>19</v>
-      </c>
-      <c r="O179" t="s">
-        <v>20</v>
-      </c>
-      <c r="P179" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q179" t="s">
-        <v>22</v>
-      </c>
-      <c r="R179" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="s">
-        <v>25</v>
-      </c>
-      <c r="B180" t="s">
-        <v>26</v>
-      </c>
-      <c r="C180" t="s">
-        <v>515</v>
-      </c>
-      <c r="D180" t="s">
-        <v>28</v>
-      </c>
-      <c r="E180" t="s">
-        <v>29</v>
-      </c>
-      <c r="F180" t="s">
-        <v>101</v>
-      </c>
-      <c r="G180" t="s">
-        <v>516</v>
-      </c>
-      <c r="H180" t="s">
-        <v>29</v>
-      </c>
-      <c r="I180" t="s">
-        <v>43</v>
-      </c>
-      <c r="J180" t="s">
-        <v>28</v>
-      </c>
-      <c r="K180" t="s">
-        <v>517</v>
-      </c>
-      <c r="L180" t="s">
-        <v>518</v>
-      </c>
-      <c r="M180" t="s">
-        <v>18</v>
-      </c>
-      <c r="N180" t="s">
-        <v>19</v>
-      </c>
-      <c r="O180" t="s">
-        <v>20</v>
-      </c>
-      <c r="P180" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q180" t="s">
-        <v>22</v>
-      </c>
-      <c r="R180" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s">
-        <v>25</v>
-      </c>
-      <c r="B181" t="s">
-        <v>26</v>
-      </c>
-      <c r="C181" t="s">
-        <v>520</v>
-      </c>
-      <c r="D181" t="s">
-        <v>28</v>
-      </c>
-      <c r="E181" t="s">
-        <v>29</v>
-      </c>
-      <c r="F181" t="s">
-        <v>171</v>
-      </c>
-      <c r="G181" t="s">
-        <v>521</v>
-      </c>
-      <c r="H181" t="s">
-        <v>29</v>
-      </c>
-      <c r="I181" t="s">
-        <v>32</v>
-      </c>
-      <c r="J181" t="s">
-        <v>82</v>
-      </c>
-      <c r="K181" t="s">
-        <v>522</v>
-      </c>
-      <c r="L181" t="s">
-        <v>523</v>
-      </c>
-      <c r="M181" t="s">
-        <v>18</v>
-      </c>
-      <c r="N181" t="s">
-        <v>19</v>
-      </c>
-      <c r="O181" t="s">
-        <v>20</v>
-      </c>
-      <c r="P181" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q181" t="s">
-        <v>22</v>
-      </c>
-      <c r="R181" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s">
-        <v>18</v>
-      </c>
-      <c r="B182" t="s">
-        <v>18</v>
-      </c>
-      <c r="C182" t="s">
-        <v>18</v>
-      </c>
-      <c r="D182" t="s">
-        <v>18</v>
-      </c>
-      <c r="E182" t="s">
-        <v>18</v>
-      </c>
-      <c r="F182" t="s">
-        <v>18</v>
-      </c>
-      <c r="G182" t="s">
-        <v>18</v>
-      </c>
-      <c r="H182" t="s">
-        <v>18</v>
-      </c>
-      <c r="I182" t="s">
-        <v>18</v>
-      </c>
-      <c r="J182" t="s">
-        <v>18</v>
-      </c>
-      <c r="K182" t="s">
-        <v>18</v>
-      </c>
-      <c r="L182" t="s">
-        <v>18</v>
-      </c>
-      <c r="M182" t="s">
-        <v>18</v>
-      </c>
-      <c r="N182" t="s">
-        <v>19</v>
-      </c>
-      <c r="O182" t="s">
-        <v>20</v>
-      </c>
-      <c r="P182" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q182" t="s">
-        <v>22</v>
-      </c>
-      <c r="R182" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s">
-        <v>18</v>
-      </c>
-      <c r="B183" t="s">
-        <v>18</v>
-      </c>
-      <c r="C183" t="s">
-        <v>18</v>
-      </c>
-      <c r="D183" t="s">
-        <v>18</v>
-      </c>
-      <c r="E183" t="s">
-        <v>18</v>
-      </c>
-      <c r="F183" t="s">
-        <v>18</v>
-      </c>
-      <c r="G183" t="s">
-        <v>18</v>
-      </c>
-      <c r="H183" t="s">
-        <v>18</v>
-      </c>
-      <c r="I183" t="s">
-        <v>18</v>
-      </c>
-      <c r="J183" t="s">
-        <v>18</v>
-      </c>
-      <c r="K183" t="s">
-        <v>18</v>
-      </c>
-      <c r="L183" t="s">
-        <v>18</v>
-      </c>
-      <c r="M183" t="s">
-        <v>18</v>
-      </c>
-      <c r="N183" t="s">
-        <v>19</v>
-      </c>
-      <c r="O183" t="s">
-        <v>20</v>
-      </c>
-      <c r="P183" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q183" t="s">
-        <v>22</v>
-      </c>
-      <c r="R183" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s">
-        <v>18</v>
-      </c>
-      <c r="B184" t="s">
-        <v>18</v>
-      </c>
-      <c r="C184" t="s">
-        <v>18</v>
-      </c>
-      <c r="D184" t="s">
-        <v>18</v>
-      </c>
-      <c r="E184" t="s">
-        <v>18</v>
-      </c>
-      <c r="F184" t="s">
-        <v>18</v>
-      </c>
-      <c r="G184" t="s">
-        <v>18</v>
-      </c>
-      <c r="H184" t="s">
-        <v>18</v>
-      </c>
-      <c r="I184" t="s">
-        <v>18</v>
-      </c>
-      <c r="J184" t="s">
-        <v>18</v>
-      </c>
-      <c r="K184" t="s">
-        <v>18</v>
-      </c>
-      <c r="L184" t="s">
-        <v>18</v>
-      </c>
-      <c r="M184" t="s">
-        <v>18</v>
-      </c>
-      <c r="N184" t="s">
-        <v>19</v>
-      </c>
-      <c r="O184" t="s">
-        <v>20</v>
-      </c>
-      <c r="P184" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q184" t="s">
-        <v>22</v>
-      </c>
-      <c r="R184" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s">
-        <v>18</v>
-      </c>
-      <c r="B185" t="s">
-        <v>18</v>
-      </c>
-      <c r="C185" t="s">
-        <v>18</v>
-      </c>
-      <c r="D185" t="s">
-        <v>18</v>
-      </c>
-      <c r="E185" t="s">
-        <v>18</v>
-      </c>
-      <c r="F185" t="s">
-        <v>18</v>
-      </c>
-      <c r="G185" t="s">
-        <v>18</v>
-      </c>
-      <c r="H185" t="s">
-        <v>18</v>
-      </c>
-      <c r="I185" t="s">
-        <v>18</v>
-      </c>
-      <c r="J185" t="s">
-        <v>18</v>
-      </c>
-      <c r="K185" t="s">
-        <v>18</v>
-      </c>
-      <c r="L185" t="s">
-        <v>18</v>
-      </c>
-      <c r="M185" t="s">
-        <v>18</v>
-      </c>
-      <c r="N185" t="s">
-        <v>19</v>
-      </c>
-      <c r="O185" t="s">
-        <v>20</v>
-      </c>
-      <c r="P185" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q185" t="s">
-        <v>22</v>
-      </c>
-      <c r="R185" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s">
-        <v>25</v>
-      </c>
-      <c r="B186" t="s">
-        <v>39</v>
-      </c>
-      <c r="C186" t="s">
-        <v>528</v>
-      </c>
-      <c r="D186" t="s">
-        <v>28</v>
-      </c>
-      <c r="E186" t="s">
-        <v>29</v>
-      </c>
-      <c r="F186" t="s">
-        <v>144</v>
-      </c>
-      <c r="G186" t="s">
-        <v>529</v>
-      </c>
-      <c r="H186" t="s">
-        <v>29</v>
-      </c>
-      <c r="I186" t="s">
-        <v>139</v>
-      </c>
-      <c r="J186" t="s">
-        <v>28</v>
-      </c>
-      <c r="K186" t="s">
-        <v>530</v>
-      </c>
-      <c r="L186" t="s">
-        <v>531</v>
-      </c>
-      <c r="M186" t="s">
-        <v>18</v>
-      </c>
-      <c r="N186" t="s">
-        <v>19</v>
-      </c>
-      <c r="O186" t="s">
-        <v>20</v>
-      </c>
-      <c r="P186" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q186" t="s">
-        <v>22</v>
-      </c>
-      <c r="R186" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s">
-        <v>25</v>
-      </c>
-      <c r="B187" t="s">
-        <v>26</v>
-      </c>
-      <c r="C187" t="s">
-        <v>533</v>
-      </c>
-      <c r="D187" t="s">
-        <v>28</v>
-      </c>
-      <c r="E187" t="s">
-        <v>29</v>
-      </c>
-      <c r="F187" t="s">
-        <v>74</v>
-      </c>
-      <c r="G187" t="s">
-        <v>534</v>
-      </c>
-      <c r="H187" t="s">
-        <v>29</v>
-      </c>
-      <c r="I187" t="s">
-        <v>69</v>
-      </c>
-      <c r="J187" t="s">
-        <v>33</v>
-      </c>
-      <c r="K187" t="s">
-        <v>535</v>
-      </c>
-      <c r="L187" t="s">
-        <v>536</v>
-      </c>
-      <c r="M187" t="s">
-        <v>18</v>
-      </c>
-      <c r="N187" t="s">
-        <v>19</v>
-      </c>
-      <c r="O187" t="s">
-        <v>20</v>
-      </c>
-      <c r="P187" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q187" t="s">
-        <v>22</v>
-      </c>
-      <c r="R187" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s">
-        <v>25</v>
-      </c>
-      <c r="B188" t="s">
-        <v>26</v>
-      </c>
-      <c r="C188" t="s">
-        <v>537</v>
-      </c>
-      <c r="D188" t="s">
-        <v>28</v>
-      </c>
-      <c r="E188" t="s">
-        <v>29</v>
-      </c>
-      <c r="F188" t="s">
-        <v>332</v>
-      </c>
-      <c r="G188" t="s">
-        <v>538</v>
-      </c>
-      <c r="H188" t="s">
-        <v>29</v>
-      </c>
-      <c r="I188" t="s">
-        <v>139</v>
-      </c>
-      <c r="J188" t="s">
-        <v>28</v>
-      </c>
-      <c r="K188" t="s">
-        <v>539</v>
-      </c>
-      <c r="L188" t="s">
-        <v>540</v>
-      </c>
-      <c r="M188" t="s">
-        <v>18</v>
-      </c>
-      <c r="N188" t="s">
-        <v>19</v>
-      </c>
-      <c r="O188" t="s">
-        <v>20</v>
-      </c>
-      <c r="P188" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q188" t="s">
-        <v>22</v>
-      </c>
-      <c r="R188" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s">
-        <v>18</v>
-      </c>
-      <c r="B189" t="s">
-        <v>18</v>
-      </c>
-      <c r="C189" t="s">
-        <v>18</v>
-      </c>
-      <c r="D189" t="s">
-        <v>18</v>
-      </c>
-      <c r="E189" t="s">
-        <v>18</v>
-      </c>
-      <c r="F189" t="s">
-        <v>18</v>
-      </c>
-      <c r="G189" t="s">
-        <v>18</v>
-      </c>
-      <c r="H189" t="s">
-        <v>18</v>
-      </c>
-      <c r="I189" t="s">
-        <v>18</v>
-      </c>
-      <c r="J189" t="s">
-        <v>18</v>
-      </c>
-      <c r="K189" t="s">
-        <v>18</v>
-      </c>
-      <c r="L189" t="s">
-        <v>18</v>
-      </c>
-      <c r="M189" t="s">
-        <v>18</v>
-      </c>
-      <c r="N189" t="s">
-        <v>19</v>
-      </c>
-      <c r="O189" t="s">
-        <v>20</v>
-      </c>
-      <c r="P189" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q189" t="s">
-        <v>22</v>
-      </c>
-      <c r="R189" t="s">
-        <v>541</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
